--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2583"/>
+  <dimension ref="A1:E2627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28961,6 +28961,754 @@
         <v>0.9399999999999999</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" s="4" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B2584" t="n">
+        <v>10881.61</v>
+      </c>
+      <c r="C2584" t="n">
+        <v>33.27</v>
+      </c>
+      <c r="D2584" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="4" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B2585" t="n">
+        <v>10916.27</v>
+      </c>
+      <c r="C2585" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="D2585" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="4" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B2586" t="n">
+        <v>10838.36</v>
+      </c>
+      <c r="C2586" t="n">
+        <v>32.78</v>
+      </c>
+      <c r="D2586" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2586" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="4" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B2587" t="n">
+        <v>10962.32</v>
+      </c>
+      <c r="C2587" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="D2587" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E2587" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="4" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B2588" t="n">
+        <v>10997.29</v>
+      </c>
+      <c r="C2588" t="n">
+        <v>33.14</v>
+      </c>
+      <c r="D2588" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E2588" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="4" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B2589" t="n">
+        <v>10983.3</v>
+      </c>
+      <c r="C2589" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="D2589" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E2589" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="4" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B2590" t="n">
+        <v>11034.36</v>
+      </c>
+      <c r="C2590" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="D2590" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="4" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B2591" t="n">
+        <v>10947.71</v>
+      </c>
+      <c r="C2591" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="D2591" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E2591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="4" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B2592" t="n">
+        <v>10864.41</v>
+      </c>
+      <c r="C2592" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="D2592" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2592" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="4" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B2593" t="n">
+        <v>10807.8</v>
+      </c>
+      <c r="C2593" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D2593" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2593" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="4" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B2594" t="n">
+        <v>10868.26</v>
+      </c>
+      <c r="C2594" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="D2594" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2594" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="4" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B2595" t="n">
+        <v>10889.35</v>
+      </c>
+      <c r="C2595" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="D2595" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2595" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="4" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B2596" t="n">
+        <v>10850.75</v>
+      </c>
+      <c r="C2596" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="D2596" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2596" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="4" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B2597" t="n">
+        <v>10864.54</v>
+      </c>
+      <c r="C2597" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="D2597" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2597" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="4" t="n">
+        <v>44372</v>
+      </c>
+      <c r="B2598" t="n">
+        <v>10939.08</v>
+      </c>
+      <c r="C2598" t="n">
+        <v>31.93</v>
+      </c>
+      <c r="D2598" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2598" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="4" t="n">
+        <v>44375</v>
+      </c>
+      <c r="B2599" t="n">
+        <v>10955.7</v>
+      </c>
+      <c r="C2599" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="D2599" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2599" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="4" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B2600" t="n">
+        <v>10912.99</v>
+      </c>
+      <c r="C2600" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="D2600" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2600" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="4" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B2601" t="n">
+        <v>10922.19</v>
+      </c>
+      <c r="C2601" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="D2601" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2601" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="4" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B2602" t="n">
+        <v>10901.55</v>
+      </c>
+      <c r="C2602" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D2602" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2602" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" s="4" t="n">
+        <v>44379</v>
+      </c>
+      <c r="B2603" t="n">
+        <v>10945.78</v>
+      </c>
+      <c r="C2603" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="D2603" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2603" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" s="4" t="n">
+        <v>44382</v>
+      </c>
+      <c r="B2604" t="n">
+        <v>11006.86</v>
+      </c>
+      <c r="C2604" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="D2604" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2604" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" s="4" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B2605" t="n">
+        <v>11007.96</v>
+      </c>
+      <c r="C2605" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="D2605" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" s="4" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B2606" t="n">
+        <v>11055.21</v>
+      </c>
+      <c r="C2606" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="D2606" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" s="4" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B2607" t="n">
+        <v>10988.83</v>
+      </c>
+      <c r="C2607" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="D2607" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" s="4" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B2608" t="n">
+        <v>11004.76</v>
+      </c>
+      <c r="C2608" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="D2608" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" s="4" t="n">
+        <v>44389</v>
+      </c>
+      <c r="B2609" t="n">
+        <v>11028.87</v>
+      </c>
+      <c r="C2609" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="D2609" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2609" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="4" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>11078.96</v>
+      </c>
+      <c r="C2610" t="n">
+        <v>31.41</v>
+      </c>
+      <c r="D2610" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2610" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="4" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>11110.26</v>
+      </c>
+      <c r="C2611" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D2611" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2611" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="4" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>11155.55</v>
+      </c>
+      <c r="C2612" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="D2612" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2612" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="4" t="n">
+        <v>44393</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>11175.19</v>
+      </c>
+      <c r="C2613" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D2613" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2613" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="4" t="n">
+        <v>44396</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>11083.58</v>
+      </c>
+      <c r="C2614" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D2614" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2614" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="4" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>10966.71</v>
+      </c>
+      <c r="C2615" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D2615" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2615" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="4" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>11098.97</v>
+      </c>
+      <c r="C2616" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="D2616" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2616" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="4" t="n">
+        <v>44400</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>11116.18</v>
+      </c>
+      <c r="C2617" t="n">
+        <v>31.26</v>
+      </c>
+      <c r="D2617" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2617" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="4" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>11110.07</v>
+      </c>
+      <c r="C2618" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="D2618" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2618" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="4" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>11057.37</v>
+      </c>
+      <c r="C2619" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D2619" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2619" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="4" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>11027.91</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D2620" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2620" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="4" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>11090.95</v>
+      </c>
+      <c r="C2621" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="D2621" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2621" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" s="4" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>11139.76</v>
+      </c>
+      <c r="C2622" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="D2622" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" s="4" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>11257.89</v>
+      </c>
+      <c r="C2623" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="D2623" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" s="4" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>11349.99</v>
+      </c>
+      <c r="C2624" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="D2624" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" s="4" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B2625" t="n">
+        <v>11327.67</v>
+      </c>
+      <c r="C2625" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="D2625" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" s="4" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B2626" t="n">
+        <v>11338.97</v>
+      </c>
+      <c r="C2626" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="D2626" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" s="4" t="n">
+        <v>44414</v>
+      </c>
+      <c r="B2627" t="n">
+        <v>11325.42</v>
+      </c>
+      <c r="C2627" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="D2627" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2627"/>
+  <dimension ref="A1:E2670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29709,6 +29709,737 @@
         <v>0.98</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" s="4" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B2628" t="n">
+        <v>11291.24</v>
+      </c>
+      <c r="C2628" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="D2628" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2628" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" s="4" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B2629" t="n">
+        <v>11231.98</v>
+      </c>
+      <c r="C2629" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="D2629" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" s="4" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B2630" t="n">
+        <v>11208.8</v>
+      </c>
+      <c r="C2630" t="n">
+        <v>29.09</v>
+      </c>
+      <c r="D2630" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2630" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" s="4" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B2631" t="n">
+        <v>11294.01</v>
+      </c>
+      <c r="C2631" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D2631" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2631" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" s="4" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B2632" t="n">
+        <v>11338.19</v>
+      </c>
+      <c r="C2632" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="D2632" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" s="4" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B2633" t="n">
+        <v>11329.81</v>
+      </c>
+      <c r="C2633" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="D2633" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" s="4" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B2634" t="n">
+        <v>11369.97</v>
+      </c>
+      <c r="C2634" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="D2634" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" s="4" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B2635" t="n">
+        <v>11371.89</v>
+      </c>
+      <c r="C2635" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="D2635" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" s="4" t="n">
+        <v>44428</v>
+      </c>
+      <c r="B2636" t="n">
+        <v>11219.88</v>
+      </c>
+      <c r="C2636" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D2636" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2636" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" s="4" t="n">
+        <v>44431</v>
+      </c>
+      <c r="B2637" t="n">
+        <v>11188.78</v>
+      </c>
+      <c r="C2637" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="D2637" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2637" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" s="4" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B2638" t="n">
+        <v>11302.78</v>
+      </c>
+      <c r="C2638" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="D2638" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2638" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" s="4" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B2639" t="n">
+        <v>11333.28</v>
+      </c>
+      <c r="C2639" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D2639" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" s="4" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B2640" t="n">
+        <v>11347.3</v>
+      </c>
+      <c r="C2640" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D2640" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2640" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" s="4" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B2641" t="n">
+        <v>11431.05</v>
+      </c>
+      <c r="C2641" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="D2641" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2641" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" s="4" t="n">
+        <v>44438</v>
+      </c>
+      <c r="B2642" t="n">
+        <v>11614.76</v>
+      </c>
+      <c r="C2642" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D2642" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2642" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" s="4" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B2643" t="n">
+        <v>11724.91</v>
+      </c>
+      <c r="C2643" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="D2643" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2643" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" s="4" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B2644" t="n">
+        <v>11750.39</v>
+      </c>
+      <c r="C2644" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="D2644" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2644" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" s="4" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B2645" t="n">
+        <v>11853.76</v>
+      </c>
+      <c r="C2645" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="D2645" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2645" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" s="4" t="n">
+        <v>44442</v>
+      </c>
+      <c r="B2646" t="n">
+        <v>11908.48</v>
+      </c>
+      <c r="C2646" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="D2646" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2646" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" s="4" t="n">
+        <v>44445</v>
+      </c>
+      <c r="B2647" t="n">
+        <v>11950.77</v>
+      </c>
+      <c r="C2647" t="n">
+        <v>27.98</v>
+      </c>
+      <c r="D2647" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2647" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" s="4" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B2648" t="n">
+        <v>11931.02</v>
+      </c>
+      <c r="C2648" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="D2648" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2648" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" s="4" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B2649" t="n">
+        <v>11958.86</v>
+      </c>
+      <c r="C2649" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="D2649" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2649" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" s="4" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B2650" t="n">
+        <v>11988.03</v>
+      </c>
+      <c r="C2650" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D2650" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2650" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" s="4" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B2651" t="n">
+        <v>12018.88</v>
+      </c>
+      <c r="C2651" t="n">
+        <v>28.13</v>
+      </c>
+      <c r="D2651" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" s="4" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2652" t="n">
+        <v>12103.87</v>
+      </c>
+      <c r="C2652" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="D2652" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" s="4" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B2653" t="n">
+        <v>12208.09</v>
+      </c>
+      <c r="C2653" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="D2653" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" s="4" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B2654" t="n">
+        <v>12273.23</v>
+      </c>
+      <c r="C2654" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D2654" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2654" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" s="4" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B2655" t="n">
+        <v>12171.73</v>
+      </c>
+      <c r="C2655" t="n">
+        <v>28.47</v>
+      </c>
+      <c r="D2655" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E2655" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" s="4" t="n">
+        <v>44459</v>
+      </c>
+      <c r="B2656" t="n">
+        <v>11986.05</v>
+      </c>
+      <c r="C2656" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="D2656" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2656" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" s="4" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B2657" t="n">
+        <v>12072.14</v>
+      </c>
+      <c r="C2657" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="D2657" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2657" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" s="4" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B2658" t="n">
+        <v>12158.31</v>
+      </c>
+      <c r="C2658" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="D2658" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E2658" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" s="4" t="n">
+        <v>44462</v>
+      </c>
+      <c r="B2659" t="n">
+        <v>12328.37</v>
+      </c>
+      <c r="C2659" t="n">
+        <v>28.83</v>
+      </c>
+      <c r="D2659" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2659" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" s="4" t="n">
+        <v>44463</v>
+      </c>
+      <c r="B2660" t="n">
+        <v>12287.63</v>
+      </c>
+      <c r="C2660" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D2660" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2660" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" s="4" t="n">
+        <v>44466</v>
+      </c>
+      <c r="B2661" t="n">
+        <v>12280.12</v>
+      </c>
+      <c r="C2661" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="D2661" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2661" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" s="4" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B2662" t="n">
+        <v>12202.42</v>
+      </c>
+      <c r="C2662" t="n">
+        <v>28.53</v>
+      </c>
+      <c r="D2662" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2662" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" s="4" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B2663" t="n">
+        <v>12238.57</v>
+      </c>
+      <c r="C2663" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="D2663" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2663" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B2664" t="n">
+        <v>12241.87</v>
+      </c>
+      <c r="C2664" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="D2664" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E2664" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" s="4" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B2665" t="n">
+        <v>12225.16</v>
+      </c>
+      <c r="C2665" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="D2665" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2665" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" s="4" t="n">
+        <v>44473</v>
+      </c>
+      <c r="B2666" t="n">
+        <v>12380.83</v>
+      </c>
+      <c r="C2666" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="D2666" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2666" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" s="4" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B2667" t="n">
+        <v>12451.91</v>
+      </c>
+      <c r="C2667" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="D2667" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2667" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" s="4" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B2668" t="n">
+        <v>12338.41</v>
+      </c>
+      <c r="C2668" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="D2668" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E2668" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" s="4" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B2669" t="n">
+        <v>12505.02</v>
+      </c>
+      <c r="C2669" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="D2669" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E2669" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" s="4" t="n">
+        <v>44477</v>
+      </c>
+      <c r="B2670" t="n">
+        <v>12564.93</v>
+      </c>
+      <c r="C2670" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="D2670" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E2670" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2670"/>
+  <dimension ref="A1:E2684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30440,6 +30440,244 @@
         <v>1.01</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" s="4" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B2671" t="n">
+        <v>12620.03</v>
+      </c>
+      <c r="C2671" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="D2671" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E2671" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" s="4" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B2672" t="n">
+        <v>12661.63</v>
+      </c>
+      <c r="C2672" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="D2672" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E2672" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" s="4" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B2673" t="n">
+        <v>12800.58</v>
+      </c>
+      <c r="C2673" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="D2673" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" s="4" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B2674" t="n">
+        <v>12901.99</v>
+      </c>
+      <c r="C2674" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="D2674" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" s="4" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B2675" t="n">
+        <v>13010.86</v>
+      </c>
+      <c r="C2675" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="D2675" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" s="4" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B2676" t="n">
+        <v>12850.85</v>
+      </c>
+      <c r="C2676" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="D2676" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" s="4" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B2677" t="n">
+        <v>12657.55</v>
+      </c>
+      <c r="C2677" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="D2677" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" s="4" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B2678" t="n">
+        <v>12590</v>
+      </c>
+      <c r="C2678" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="D2678" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" s="4" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B2679" t="n">
+        <v>12511.71</v>
+      </c>
+      <c r="C2679" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="D2679" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E2679" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" s="4" t="n">
+        <v>44494</v>
+      </c>
+      <c r="B2680" t="n">
+        <v>12406.23</v>
+      </c>
+      <c r="C2680" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="D2680" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2680" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="4" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B2681" t="n">
+        <v>12567.79</v>
+      </c>
+      <c r="C2681" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="D2681" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2681" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="4" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B2682" t="n">
+        <v>12563.14</v>
+      </c>
+      <c r="C2682" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="D2682" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2682" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" s="4" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B2683" t="n">
+        <v>12336.01</v>
+      </c>
+      <c r="C2683" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="D2683" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" s="4" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B2684" t="n">
+        <v>12277.04</v>
+      </c>
+      <c r="C2684" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="D2684" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2684" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2684"/>
+  <dimension ref="A1:E2688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30678,6 +30678,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2685">
+      <c r="A2685" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B2685" t="n">
+        <v>12466.13</v>
+      </c>
+      <c r="C2685" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="D2685" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E2685" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" s="4" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B2686" t="n">
+        <v>12512.47</v>
+      </c>
+      <c r="C2686" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="D2686" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2686" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" s="4" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B2687" t="n">
+        <v>12485.08</v>
+      </c>
+      <c r="C2687" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="D2687" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E2687" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" s="4" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B2688" t="n">
+        <v>12572.52</v>
+      </c>
+      <c r="C2688" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D2688" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E2688" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2688"/>
+  <dimension ref="A1:E2703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30746,6 +30746,261 @@
         <v>0.97</v>
       </c>
     </row>
+    <row r="2689">
+      <c r="A2689" s="4" t="n">
+        <v>44508</v>
+      </c>
+      <c r="B2689" t="n">
+        <v>12700.86</v>
+      </c>
+      <c r="C2689" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D2689" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E2689" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" s="4" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B2690" t="n">
+        <v>12762.93</v>
+      </c>
+      <c r="C2690" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="D2690" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E2690" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" s="4" t="n">
+        <v>44510</v>
+      </c>
+      <c r="B2691" t="n">
+        <v>12732.76</v>
+      </c>
+      <c r="C2691" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D2691" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E2691" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" s="4" t="n">
+        <v>44511</v>
+      </c>
+      <c r="B2692" t="n">
+        <v>12647.24</v>
+      </c>
+      <c r="C2692" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D2692" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E2692" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" s="4" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B2693" t="n">
+        <v>12757.63</v>
+      </c>
+      <c r="C2693" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D2693" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E2693" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" s="4" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B2694" t="n">
+        <v>12784.23</v>
+      </c>
+      <c r="C2694" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="D2694" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" s="4" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B2695" t="n">
+        <v>12736.68</v>
+      </c>
+      <c r="C2695" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="D2695" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" s="4" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B2696" t="n">
+        <v>12680.03</v>
+      </c>
+      <c r="C2696" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="D2696" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E2696" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" s="4" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B2697" t="n">
+        <v>12533.08</v>
+      </c>
+      <c r="C2697" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="D2697" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2697" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" s="4" t="n">
+        <v>44522</v>
+      </c>
+      <c r="B2698" t="n">
+        <v>12237.48</v>
+      </c>
+      <c r="C2698" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="D2698" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2698" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" s="4" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B2699" t="n">
+        <v>12372.27</v>
+      </c>
+      <c r="C2699" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2699" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2699" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="4" t="n">
+        <v>44524</v>
+      </c>
+      <c r="B2700" t="n">
+        <v>12325.29</v>
+      </c>
+      <c r="C2700" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="D2700" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E2700" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="4" t="n">
+        <v>44525</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>12398.23</v>
+      </c>
+      <c r="C2701" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="D2701" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E2701" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="4" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>12033.88</v>
+      </c>
+      <c r="C2702" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="D2702" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2702" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="4" t="n">
+        <v>44529</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>11968.84</v>
+      </c>
+      <c r="C2703" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="D2703" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2703" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2703"/>
+  <dimension ref="A1:E2707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31001,6 +31001,74 @@
         <v>1.05</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" s="4" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>11991.57</v>
+      </c>
+      <c r="C2704" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="D2704" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2704" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>12101</v>
+      </c>
+      <c r="C2705" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="D2705" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2705" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="4" t="n">
+        <v>44532</v>
+      </c>
+      <c r="B2706" t="n">
+        <v>12251.57</v>
+      </c>
+      <c r="C2706" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="D2706" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E2706" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="4" t="n">
+        <v>44533</v>
+      </c>
+      <c r="B2707" t="n">
+        <v>12178.33</v>
+      </c>
+      <c r="C2707" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D2707" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E2707" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2707"/>
+  <dimension ref="A1:E2712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31069,6 +31069,91 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" s="4" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B2708" t="n">
+        <v>11997.29</v>
+      </c>
+      <c r="C2708" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D2708" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2708" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" s="4" t="n">
+        <v>44537</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>12161.96</v>
+      </c>
+      <c r="C2709" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D2709" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E2709" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>12352.7</v>
+      </c>
+      <c r="C2710" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="D2710" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2710" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" s="4" t="n">
+        <v>44539</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>12404.4</v>
+      </c>
+      <c r="C2711" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="D2711" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E2711" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" s="4" t="n">
+        <v>44540</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>12448.03</v>
+      </c>
+      <c r="C2712" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="D2712" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E2712" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2712"/>
+  <dimension ref="A1:E2727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31154,6 +31154,261 @@
         <v>1.01</v>
       </c>
     </row>
+    <row r="2713">
+      <c r="A2713" s="4" t="n">
+        <v>44543</v>
+      </c>
+      <c r="B2713" t="n">
+        <v>12399.06</v>
+      </c>
+      <c r="C2713" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="D2713" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E2713" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" s="4" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B2714" t="n">
+        <v>12372.75</v>
+      </c>
+      <c r="C2714" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="D2714" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2714" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B2715" t="n">
+        <v>12300.26</v>
+      </c>
+      <c r="C2715" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="D2715" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E2715" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" s="4" t="n">
+        <v>44546</v>
+      </c>
+      <c r="B2716" t="n">
+        <v>12265.71</v>
+      </c>
+      <c r="C2716" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="D2716" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2716" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" s="4" t="n">
+        <v>44547</v>
+      </c>
+      <c r="B2717" t="n">
+        <v>12041.13</v>
+      </c>
+      <c r="C2717" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="D2717" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2717" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" s="4" t="n">
+        <v>44550</v>
+      </c>
+      <c r="B2718" t="n">
+        <v>11698.24</v>
+      </c>
+      <c r="C2718" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="D2718" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2718" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B2719" t="n">
+        <v>11837.16</v>
+      </c>
+      <c r="C2719" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D2719" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E2719" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" s="4" t="n">
+        <v>44552</v>
+      </c>
+      <c r="B2720" t="n">
+        <v>11994.54</v>
+      </c>
+      <c r="C2720" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="D2720" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2720" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" s="4" t="n">
+        <v>44553</v>
+      </c>
+      <c r="B2721" t="n">
+        <v>12090.07</v>
+      </c>
+      <c r="C2721" t="n">
+        <v>26.39</v>
+      </c>
+      <c r="D2721" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E2721" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" s="4" t="n">
+        <v>44554</v>
+      </c>
+      <c r="B2722" t="n">
+        <v>12000.33</v>
+      </c>
+      <c r="C2722" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D2722" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2722" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" s="4" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B2723" t="n">
+        <v>12046.99</v>
+      </c>
+      <c r="C2723" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="D2723" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2723" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" s="4" t="n">
+        <v>44558</v>
+      </c>
+      <c r="B2724" t="n">
+        <v>12167.47</v>
+      </c>
+      <c r="C2724" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D2724" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E2724" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B2725" t="n">
+        <v>12168.45</v>
+      </c>
+      <c r="C2725" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D2725" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E2725" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" s="4" t="n">
+        <v>44560</v>
+      </c>
+      <c r="B2726" t="n">
+        <v>12149.63</v>
+      </c>
+      <c r="C2726" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="D2726" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2726" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" s="4" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B2727" t="n">
+        <v>12287.5</v>
+      </c>
+      <c r="C2727" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="D2727" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2727" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2727"/>
+  <dimension ref="A1:E2742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31409,6 +31409,261 @@
         <v>1.06</v>
       </c>
     </row>
+    <row r="2728">
+      <c r="A2728" s="4" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B2728" t="n">
+        <v>12445.55</v>
+      </c>
+      <c r="C2728" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="D2728" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2728" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B2729" t="n">
+        <v>12515.4</v>
+      </c>
+      <c r="C2729" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="D2729" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E2729" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" s="4" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B2730" t="n">
+        <v>12557.51</v>
+      </c>
+      <c r="C2730" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="D2730" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E2730" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" s="4" t="n">
+        <v>44567</v>
+      </c>
+      <c r="B2731" t="n">
+        <v>12497.85</v>
+      </c>
+      <c r="C2731" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D2731" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E2731" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" s="4" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B2732" t="n">
+        <v>12544.71</v>
+      </c>
+      <c r="C2732" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D2732" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E2732" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" s="4" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B2733" t="n">
+        <v>12647.45</v>
+      </c>
+      <c r="C2733" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="D2733" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E2733" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" s="4" t="n">
+        <v>44572</v>
+      </c>
+      <c r="B2734" t="n">
+        <v>12673.56</v>
+      </c>
+      <c r="C2734" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="D2734" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E2734" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B2735" t="n">
+        <v>12802.63</v>
+      </c>
+      <c r="C2735" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D2735" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E2735" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" s="4" t="n">
+        <v>44574</v>
+      </c>
+      <c r="B2736" t="n">
+        <v>12852.72</v>
+      </c>
+      <c r="C2736" t="n">
+        <v>28.17</v>
+      </c>
+      <c r="D2736" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E2736" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" s="4" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B2737" t="n">
+        <v>12851.82</v>
+      </c>
+      <c r="C2737" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="D2737" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E2737" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" s="4" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B2738" t="n">
+        <v>12891.64</v>
+      </c>
+      <c r="C2738" t="n">
+        <v>28.21</v>
+      </c>
+      <c r="D2738" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E2738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" s="4" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B2739" t="n">
+        <v>12698.28</v>
+      </c>
+      <c r="C2739" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="D2739" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E2739" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B2740" t="n">
+        <v>12636.29</v>
+      </c>
+      <c r="C2740" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D2740" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E2740" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" s="4" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B2741" t="n">
+        <v>12566.25</v>
+      </c>
+      <c r="C2741" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="D2741" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E2741" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" s="4" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B2742" t="n">
+        <v>12375.77</v>
+      </c>
+      <c r="C2742" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="D2742" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E2742" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2742"/>
+  <dimension ref="A1:E2761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31664,6 +31664,329 @@
         <v>1.05</v>
       </c>
     </row>
+    <row r="2743">
+      <c r="A2743" s="4" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B2743" t="n">
+        <v>11973.2</v>
+      </c>
+      <c r="C2743" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="D2743" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2743" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" s="4" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B2744" t="n">
+        <v>12071.81</v>
+      </c>
+      <c r="C2744" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="D2744" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2744" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" s="4" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B2745" t="n">
+        <v>11939.9</v>
+      </c>
+      <c r="C2745" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="D2745" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2745" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" s="4" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B2746" t="n">
+        <v>12022.81</v>
+      </c>
+      <c r="C2746" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="D2746" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E2746" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" s="4" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B2747" t="n">
+        <v>12195.19</v>
+      </c>
+      <c r="C2747" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="D2747" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2747" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" s="4" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B2748" t="n">
+        <v>12344.51</v>
+      </c>
+      <c r="C2748" t="n">
+        <v>26.52</v>
+      </c>
+      <c r="D2748" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E2748" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B2749" t="n">
+        <v>12484.81</v>
+      </c>
+      <c r="C2749" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="D2749" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E2749" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" s="4" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B2750" t="n">
+        <v>12354.59</v>
+      </c>
+      <c r="C2750" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D2750" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E2750" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" s="4" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B2751" t="n">
+        <v>12293.99</v>
+      </c>
+      <c r="C2751" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="D2751" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2751" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" s="4" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B2752" t="n">
+        <v>12143.54</v>
+      </c>
+      <c r="C2752" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="D2752" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2752" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" s="4" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B2753" t="n">
+        <v>12107.07</v>
+      </c>
+      <c r="C2753" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D2753" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E2753" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B2754" t="n">
+        <v>12245.08</v>
+      </c>
+      <c r="C2754" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="D2754" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E2754" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="4" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B2755" t="n">
+        <v>12307.64</v>
+      </c>
+      <c r="C2755" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="D2755" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2755" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="4" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B2756" t="n">
+        <v>12106.43</v>
+      </c>
+      <c r="C2756" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="D2756" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E2756" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" s="4" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B2757" t="n">
+        <v>11690.99</v>
+      </c>
+      <c r="C2757" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="D2757" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E2757" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" s="4" t="n">
+        <v>44607</v>
+      </c>
+      <c r="B2758" t="n">
+        <v>12014.99</v>
+      </c>
+      <c r="C2758" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="D2758" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E2758" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B2759" t="n">
+        <v>11996.23</v>
+      </c>
+      <c r="C2759" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="D2759" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2759" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" s="4" t="n">
+        <v>44609</v>
+      </c>
+      <c r="B2760" t="n">
+        <v>11980.99</v>
+      </c>
+      <c r="C2760" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D2760" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2760" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" s="4" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B2761" t="n">
+        <v>11912.91</v>
+      </c>
+      <c r="C2761" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="D2761" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2761" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2761"/>
+  <dimension ref="A1:E2779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31987,6 +31987,312 @@
         <v>1.13</v>
       </c>
     </row>
+    <row r="2762">
+      <c r="A2762" s="4" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B2762" t="n">
+        <v>11816.26</v>
+      </c>
+      <c r="C2762" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="D2762" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E2762" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" s="4" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B2763" t="n">
+        <v>11728.03</v>
+      </c>
+      <c r="C2763" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D2763" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E2763" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" s="4" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B2764" t="n">
+        <v>11748.61</v>
+      </c>
+      <c r="C2764" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2764" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2764" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" s="4" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B2765" t="n">
+        <v>11144.88</v>
+      </c>
+      <c r="C2765" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D2765" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2765" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" s="4" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B2766" t="n">
+        <v>11512.28</v>
+      </c>
+      <c r="C2766" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="D2766" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2766" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" s="4" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B2767" t="n">
+        <v>11610.45</v>
+      </c>
+      <c r="C2767" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="D2767" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2767" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" s="4" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B2768" t="n">
+        <v>11540.98</v>
+      </c>
+      <c r="C2768" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="D2768" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2768" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" s="4" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B2769" t="n">
+        <v>11493.17</v>
+      </c>
+      <c r="C2769" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="D2769" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2769" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" s="4" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B2770" t="n">
+        <v>11280.31</v>
+      </c>
+      <c r="C2770" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="D2770" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2770" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" s="4" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B2771" t="n">
+        <v>11020.73</v>
+      </c>
+      <c r="C2771" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D2771" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2771" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" s="4" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B2772" t="n">
+        <v>11135.66</v>
+      </c>
+      <c r="C2772" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D2772" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2772" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" s="4" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B2773" t="n">
+        <v>11359.42</v>
+      </c>
+      <c r="C2773" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D2773" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2773" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" s="4" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B2774" t="n">
+        <v>11509.31</v>
+      </c>
+      <c r="C2774" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="D2774" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2774" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" s="4" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B2775" t="n">
+        <v>11555.37</v>
+      </c>
+      <c r="C2775" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D2775" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2775" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" s="4" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B2776" t="n">
+        <v>11632.62</v>
+      </c>
+      <c r="C2776" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="D2776" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2776" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" s="4" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B2777" t="n">
+        <v>11516.17</v>
+      </c>
+      <c r="C2777" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="D2777" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2777" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" s="4" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B2778" t="n">
+        <v>11739.3</v>
+      </c>
+      <c r="C2778" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D2778" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E2778" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" s="4" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B2779" t="n">
+        <v>11916.51</v>
+      </c>
+      <c r="C2779" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="D2779" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2779" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2779"/>
+  <dimension ref="A1:E2811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32293,6 +32293,550 @@
         <v>1.16</v>
       </c>
     </row>
+    <row r="2780">
+      <c r="A2780" s="4" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B2780" t="n">
+        <v>11846.58</v>
+      </c>
+      <c r="C2780" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="D2780" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="E2780" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="4" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B2781" t="n">
+        <v>11915.52</v>
+      </c>
+      <c r="C2781" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="D2781" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2781" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="4" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B2782" t="n">
+        <v>11917.29</v>
+      </c>
+      <c r="C2782" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="D2782" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2782" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="4" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B2783" t="n">
+        <v>11942.78</v>
+      </c>
+      <c r="C2783" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="D2783" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2783" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="4" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B2784" t="n">
+        <v>11910.2</v>
+      </c>
+      <c r="C2784" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2784" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2784" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="4" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B2785" t="n">
+        <v>11918.98</v>
+      </c>
+      <c r="C2785" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="D2785" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2785" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="4" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B2786" t="n">
+        <v>11989.96</v>
+      </c>
+      <c r="C2786" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D2786" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2786" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="4" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B2787" t="n">
+        <v>12099.7</v>
+      </c>
+      <c r="C2787" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="D2787" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2787" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="4" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B2788" t="n">
+        <v>12112.92</v>
+      </c>
+      <c r="C2788" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="D2788" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E2788" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="4" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B2789" t="n">
+        <v>12265.2</v>
+      </c>
+      <c r="C2789" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="D2789" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="E2789" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="4" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B2790" t="n">
+        <v>12485.6</v>
+      </c>
+      <c r="C2790" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="D2790" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E2790" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="4" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B2791" t="n">
+        <v>12557.32</v>
+      </c>
+      <c r="C2791" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="D2791" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2791" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="4" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B2792" t="n">
+        <v>12544.35</v>
+      </c>
+      <c r="C2792" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D2792" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2792" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="4" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B2793" t="n">
+        <v>12435.55</v>
+      </c>
+      <c r="C2793" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="D2793" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E2793" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="4" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B2794" t="n">
+        <v>12552.58</v>
+      </c>
+      <c r="C2794" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="D2794" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E2794" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="4" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B2795" t="n">
+        <v>12577.24</v>
+      </c>
+      <c r="C2795" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="D2795" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E2795" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="4" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B2796" t="n">
+        <v>12409.65</v>
+      </c>
+      <c r="C2796" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="D2796" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E2796" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="4" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B2797" t="n">
+        <v>12389.54</v>
+      </c>
+      <c r="C2797" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D2797" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E2797" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="4" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B2798" t="n">
+        <v>12225.68</v>
+      </c>
+      <c r="C2798" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="D2798" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E2798" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="4" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B2799" t="n">
+        <v>12070.18</v>
+      </c>
+      <c r="C2799" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="D2799" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2799" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="4" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B2800" t="n">
+        <v>12166.16</v>
+      </c>
+      <c r="C2800" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="D2800" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2800" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="4" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B2801" t="n">
+        <v>12317.12</v>
+      </c>
+      <c r="C2801" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="D2801" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E2801" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" s="4" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B2802" t="n">
+        <v>12193.78</v>
+      </c>
+      <c r="C2802" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="D2802" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E2802" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" s="4" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B2803" t="n">
+        <v>11999.29</v>
+      </c>
+      <c r="C2803" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="D2803" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E2803" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" s="4" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B2804" t="n">
+        <v>12182.08</v>
+      </c>
+      <c r="C2804" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="D2804" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2804" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" s="4" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B2805" t="n">
+        <v>12069.59</v>
+      </c>
+      <c r="C2805" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2805" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E2805" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" s="4" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B2806" t="n">
+        <v>12181.18</v>
+      </c>
+      <c r="C2806" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="D2806" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E2806" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" s="4" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B2807" t="n">
+        <v>12084.74</v>
+      </c>
+      <c r="C2807" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="D2807" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E2807" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" s="4" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B2808" t="n">
+        <v>12040.72</v>
+      </c>
+      <c r="C2808" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="D2808" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E2808" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" s="4" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B2809" t="n">
+        <v>11773.69</v>
+      </c>
+      <c r="C2809" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D2809" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2809" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" s="4" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B2810" t="n">
+        <v>11779.59</v>
+      </c>
+      <c r="C2810" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="D2810" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2810" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" s="4" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B2811" t="n">
+        <v>11579.1</v>
+      </c>
+      <c r="C2811" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="D2811" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2811" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2811"/>
+  <dimension ref="A1:E2821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32837,6 +32837,176 @@
         <v>1.16</v>
       </c>
     </row>
+    <row r="2812">
+      <c r="A2812" s="4" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B2812" t="n">
+        <v>11428.1</v>
+      </c>
+      <c r="C2812" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="D2812" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2812" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" s="4" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B2813" t="n">
+        <v>11284.34</v>
+      </c>
+      <c r="C2813" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D2813" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2813" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" s="4" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B2814" t="n">
+        <v>11223.14</v>
+      </c>
+      <c r="C2814" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D2814" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2814" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="4" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B2815" t="n">
+        <v>10978.71</v>
+      </c>
+      <c r="C2815" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="D2815" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2815" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" s="4" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B2816" t="n">
+        <v>11019.49</v>
+      </c>
+      <c r="C2816" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D2816" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2816" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" s="4" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B2817" t="n">
+        <v>11121.45</v>
+      </c>
+      <c r="C2817" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D2817" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2817" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" s="4" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B2818" t="n">
+        <v>11406.86</v>
+      </c>
+      <c r="C2818" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="D2818" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2818" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" s="4" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B2819" t="n">
+        <v>11395.54</v>
+      </c>
+      <c r="C2819" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="D2819" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2819" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" s="4" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B2820" t="n">
+        <v>11089.14</v>
+      </c>
+      <c r="C2820" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D2820" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E2820" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" s="4" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B2821" t="n">
+        <v>11350.51</v>
+      </c>
+      <c r="C2821" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D2821" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2821" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2821"/>
+  <dimension ref="A1:E2826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33007,6 +33007,91 @@
         <v>1.23</v>
       </c>
     </row>
+    <row r="2822">
+      <c r="A2822" s="4" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B2822" t="n">
+        <v>11304.91</v>
+      </c>
+      <c r="C2822" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D2822" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2822" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" s="4" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B2823" t="n">
+        <v>11236.36</v>
+      </c>
+      <c r="C2823" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D2823" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2823" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B2824" t="n">
+        <v>11069.17</v>
+      </c>
+      <c r="C2824" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="D2824" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E2824" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" s="4" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B2825" t="n">
+        <v>11191.37</v>
+      </c>
+      <c r="C2825" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D2825" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2825" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" s="4" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B2826" t="n">
+        <v>11321.56</v>
+      </c>
+      <c r="C2826" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D2826" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2826" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2826"/>
+  <dimension ref="A1:E2836"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33092,6 +33092,176 @@
         <v>1.29</v>
       </c>
     </row>
+    <row r="2827">
+      <c r="A2827" s="4" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B2827" t="n">
+        <v>11565.29</v>
+      </c>
+      <c r="C2827" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="D2827" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2827" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="4" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B2828" t="n">
+        <v>11551.17</v>
+      </c>
+      <c r="C2828" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="D2828" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2828" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B2829" t="n">
+        <v>11545.12</v>
+      </c>
+      <c r="C2829" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D2829" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2829" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="4" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2830" t="n">
+        <v>11611.95</v>
+      </c>
+      <c r="C2830" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="D2830" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2830" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="4" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B2831" t="n">
+        <v>11499.05</v>
+      </c>
+      <c r="C2831" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D2831" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2831" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="4" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B2832" t="n">
+        <v>11481.11</v>
+      </c>
+      <c r="C2832" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="D2832" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2832" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="4" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B2833" t="n">
+        <v>11389.93</v>
+      </c>
+      <c r="C2833" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="D2833" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2833" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="4" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B2834" t="n">
+        <v>11346.3</v>
+      </c>
+      <c r="C2834" t="n">
+        <v/>
+      </c>
+      <c r="D2834" t="n">
+        <v/>
+      </c>
+      <c r="E2834" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="4" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B2835" t="n">
+        <v>11414.42</v>
+      </c>
+      <c r="C2835" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="D2835" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2835" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="4" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B2836" t="n">
+        <v>11284.1</v>
+      </c>
+      <c r="C2836" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="D2836" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2836" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2836"/>
+  <dimension ref="A1:E2880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33218,15 +33218,6 @@
       <c r="B2834" t="n">
         <v>11346.3</v>
       </c>
-      <c r="C2834" t="n">
-        <v/>
-      </c>
-      <c r="D2834" t="n">
-        <v/>
-      </c>
-      <c r="E2834" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2835">
       <c r="A2835" s="4" t="n">
@@ -33260,6 +33251,754 @@
       </c>
       <c r="E2836" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="4" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B2837" t="n">
+        <v>10987.44</v>
+      </c>
+      <c r="C2837" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="D2837" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2837" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="4" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B2838" t="n">
+        <v>10964.34</v>
+      </c>
+      <c r="C2838" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="D2838" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E2838" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="4" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B2839" t="n">
+        <v>10979.71</v>
+      </c>
+      <c r="C2839" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2839" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2839" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="4" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B2840" t="n">
+        <v>10743.21</v>
+      </c>
+      <c r="C2840" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="D2840" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E2840" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="4" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B2841" t="n">
+        <v>10648.94</v>
+      </c>
+      <c r="C2841" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="D2841" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E2841" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="4" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B2842" t="n">
+        <v>10557.96</v>
+      </c>
+      <c r="C2842" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D2842" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E2842" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="4" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B2843" t="n">
+        <v>10826.78</v>
+      </c>
+      <c r="C2843" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="D2843" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E2843" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="4" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B2844" t="n">
+        <v>10666.97</v>
+      </c>
+      <c r="C2844" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D2844" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E2844" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="4" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B2845" t="n">
+        <v>10779.73</v>
+      </c>
+      <c r="C2845" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D2845" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E2845" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="4" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B2846" t="n">
+        <v>10906.62</v>
+      </c>
+      <c r="C2846" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="D2846" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2846" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="4" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B2847" t="n">
+        <v>11008.17</v>
+      </c>
+      <c r="C2847" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="D2847" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2847" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="4" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2848" t="n">
+        <v>11036.11</v>
+      </c>
+      <c r="C2848" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="D2848" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2848" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="4" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2849" t="n">
+        <v>11004.52</v>
+      </c>
+      <c r="C2849" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="D2849" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2849" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="4" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2850" t="n">
+        <v>10967.35</v>
+      </c>
+      <c r="C2850" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D2850" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2850" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="4" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2851" t="n">
+        <v>10985.36</v>
+      </c>
+      <c r="C2851" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="D2851" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2851" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="4" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2852" t="n">
+        <v>11055.27</v>
+      </c>
+      <c r="C2852" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="D2852" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E2852" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="4" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2853" t="n">
+        <v>11044.37</v>
+      </c>
+      <c r="C2853" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="D2853" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2853" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="4" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2854" t="n">
+        <v>11210.44</v>
+      </c>
+      <c r="C2854" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="D2854" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2854" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="4" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2855" t="n">
+        <v>11336.36</v>
+      </c>
+      <c r="C2855" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="D2855" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2855" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="4" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2856" t="n">
+        <v>11378.2</v>
+      </c>
+      <c r="C2856" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="D2856" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2856" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="4" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2857" t="n">
+        <v>11450.28</v>
+      </c>
+      <c r="C2857" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="D2857" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2857" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="4" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2858" t="n">
+        <v>11371.73</v>
+      </c>
+      <c r="C2858" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="D2858" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2858" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="4" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2859" t="n">
+        <v>11347.86</v>
+      </c>
+      <c r="C2859" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="D2859" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E2859" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="4" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2860" t="n">
+        <v>11338.55</v>
+      </c>
+      <c r="C2860" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D2860" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E2860" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="4" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2861" t="n">
+        <v>11413.12</v>
+      </c>
+      <c r="C2861" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="D2861" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2861" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" s="4" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2862" t="n">
+        <v>11571.33</v>
+      </c>
+      <c r="C2862" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D2862" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E2862" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" s="4" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2863" t="n">
+        <v>11639.73</v>
+      </c>
+      <c r="C2863" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="D2863" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2863" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" s="4" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2864" t="n">
+        <v>11703.18</v>
+      </c>
+      <c r="C2864" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D2864" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2864" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" s="4" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2865" t="n">
+        <v>11820.87</v>
+      </c>
+      <c r="C2865" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="D2865" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2865" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" s="4" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2866" t="n">
+        <v>11862.32</v>
+      </c>
+      <c r="C2866" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D2866" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2866" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" s="4" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B2867" t="n">
+        <v>11831.06</v>
+      </c>
+      <c r="C2867" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="D2867" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2867" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" s="4" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B2868" t="n">
+        <v>11712.28</v>
+      </c>
+      <c r="C2868" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="D2868" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2868" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" s="4" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B2869" t="n">
+        <v>11818.02</v>
+      </c>
+      <c r="C2869" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="D2869" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2869" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" s="4" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B2870" t="n">
+        <v>11959.37</v>
+      </c>
+      <c r="C2870" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="D2870" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2870" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" s="4" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B2871" t="n">
+        <v>12123.38</v>
+      </c>
+      <c r="C2871" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D2871" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2871" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="4" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B2872" t="n">
+        <v>12284.96</v>
+      </c>
+      <c r="C2872" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2872" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" s="4" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B2873" t="n">
+        <v>12322.41</v>
+      </c>
+      <c r="C2873" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D2873" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2873" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" s="4" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B2874" t="n">
+        <v>12300.02</v>
+      </c>
+      <c r="C2874" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D2874" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2874" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" s="4" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B2875" t="n">
+        <v>12337.08</v>
+      </c>
+      <c r="C2875" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D2875" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2875" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" s="4" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B2876" t="n">
+        <v>12357.58</v>
+      </c>
+      <c r="C2876" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="D2876" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2876" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" s="4" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B2877" t="n">
+        <v>12421.48</v>
+      </c>
+      <c r="C2877" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D2877" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2877" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" s="4" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B2878" t="n">
+        <v>12409.83</v>
+      </c>
+      <c r="C2878" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="D2878" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2878" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" s="4" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B2879" t="n">
+        <v>12507.71</v>
+      </c>
+      <c r="C2879" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="D2879" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2879" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" s="4" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B2880" t="n">
+        <v>12563.4</v>
+      </c>
+      <c r="C2880" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D2880" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2880" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2880"/>
+  <dimension ref="A1:E2917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34001,6 +34001,635 @@
         <v>1.28</v>
       </c>
     </row>
+    <row r="2881">
+      <c r="A2881" s="4" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B2881" t="n">
+        <v>12701.33</v>
+      </c>
+      <c r="C2881" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="D2881" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2881" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" s="4" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B2882" t="n">
+        <v>12772.85</v>
+      </c>
+      <c r="C2882" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="D2882" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2882" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" s="4" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B2883" t="n">
+        <v>12797.05</v>
+      </c>
+      <c r="C2883" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D2883" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2883" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" s="4" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B2884" t="n">
+        <v>12651.02</v>
+      </c>
+      <c r="C2884" t="n">
+        <v>23.58</v>
+      </c>
+      <c r="D2884" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2884" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" s="4" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B2885" t="n">
+        <v>12439.07</v>
+      </c>
+      <c r="C2885" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="D2885" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2885" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" s="4" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B2886" t="n">
+        <v>12528.35</v>
+      </c>
+      <c r="C2886" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="D2886" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2886" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" s="4" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B2887" t="n">
+        <v>12583.26</v>
+      </c>
+      <c r="C2887" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D2887" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E2887" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" s="4" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B2888" t="n">
+        <v>12564.85</v>
+      </c>
+      <c r="C2888" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D2888" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E2888" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" s="4" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B2889" t="n">
+        <v>12605.22</v>
+      </c>
+      <c r="C2889" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="D2889" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2889" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" s="4" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B2890" t="n">
+        <v>12473.45</v>
+      </c>
+      <c r="C2890" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D2890" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2890" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" s="4" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B2891" t="n">
+        <v>12755.46</v>
+      </c>
+      <c r="C2891" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D2891" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2891" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B2892" t="n">
+        <v>12707.2</v>
+      </c>
+      <c r="C2892" t="n">
+        <v>23.64</v>
+      </c>
+      <c r="D2892" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2892" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" s="4" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B2893" t="n">
+        <v>12687.56</v>
+      </c>
+      <c r="C2893" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="D2893" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E2893" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B2894" t="n">
+        <v>12759.58</v>
+      </c>
+      <c r="C2894" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="D2894" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2894" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="4" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B2895" t="n">
+        <v>12787.2</v>
+      </c>
+      <c r="C2895" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D2895" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2895" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" s="4" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B2896" t="n">
+        <v>12813.77</v>
+      </c>
+      <c r="C2896" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="D2896" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E2896" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" s="4" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B2897" t="n">
+        <v>12892.61</v>
+      </c>
+      <c r="C2897" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D2897" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E2897" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" s="4" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B2898" t="n">
+        <v>12929.2</v>
+      </c>
+      <c r="C2898" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2898" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2898" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" s="4" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B2899" t="n">
+        <v>13025.37</v>
+      </c>
+      <c r="C2899" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="D2899" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2899" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" s="4" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B2900" t="n">
+        <v>13081.63</v>
+      </c>
+      <c r="C2900" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="D2900" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E2900" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" s="4" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B2901" t="n">
+        <v>13042.02</v>
+      </c>
+      <c r="C2901" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="D2901" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E2901" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" s="4" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B2902" t="n">
+        <v>13035.75</v>
+      </c>
+      <c r="C2902" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D2902" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="E2902" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" s="4" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B2903" t="n">
+        <v>12735.57</v>
+      </c>
+      <c r="C2903" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="D2903" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E2903" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" s="4" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B2904" t="n">
+        <v>12768.89</v>
+      </c>
+      <c r="C2904" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="D2904" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="E2904" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="4" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B2905" t="n">
+        <v>12932.99</v>
+      </c>
+      <c r="C2905" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E2905" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="4" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B2906" t="n">
+        <v>12842.08</v>
+      </c>
+      <c r="C2906" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2906" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="4" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B2907" t="n">
+        <v>12842.68</v>
+      </c>
+      <c r="C2907" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E2907" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="4" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B2908" t="n">
+        <v>12595.15</v>
+      </c>
+      <c r="C2908" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2908" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="4" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B2909" t="n">
+        <v>12285.13</v>
+      </c>
+      <c r="C2909" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="D2909" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2909" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="4" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B2910" t="n">
+        <v>12286.56</v>
+      </c>
+      <c r="C2910" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="D2910" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2910" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="4" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B2911" t="n">
+        <v>12218.85</v>
+      </c>
+      <c r="C2911" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="D2911" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2911" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="4" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B2912" t="n">
+        <v>12227.47</v>
+      </c>
+      <c r="C2912" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="D2912" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2912" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="4" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B2913" t="n">
+        <v>12412.14</v>
+      </c>
+      <c r="C2913" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D2913" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E2913" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="4" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B2914" t="n">
+        <v>12259.61</v>
+      </c>
+      <c r="C2914" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D2914" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E2914" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="4" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B2915" t="n">
+        <v>12540.37</v>
+      </c>
+      <c r="C2915" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D2915" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2915" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="4" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B2916" t="n">
+        <v>12640.81</v>
+      </c>
+      <c r="C2916" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="D2916" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2916" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="4" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B2917" t="n">
+        <v>12617.02</v>
+      </c>
+      <c r="C2917" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="D2917" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2917" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2917"/>
+  <dimension ref="A1:E2945"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34630,6 +34630,482 @@
         <v>1.28</v>
       </c>
     </row>
+    <row r="2918">
+      <c r="A2918" s="4" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B2918" t="n">
+        <v>12528.49</v>
+      </c>
+      <c r="C2918" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="D2918" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E2918" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="4" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B2919" t="n">
+        <v>12332.66</v>
+      </c>
+      <c r="C2919" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="D2919" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E2919" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" s="4" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B2920" t="n">
+        <v>12416.38</v>
+      </c>
+      <c r="C2920" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D2920" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E2920" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="4" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B2921" t="n">
+        <v>12334.52</v>
+      </c>
+      <c r="C2921" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="D2921" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E2921" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" s="4" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B2922" t="n">
+        <v>12376.34</v>
+      </c>
+      <c r="C2922" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D2922" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E2922" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" s="4" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B2923" t="n">
+        <v>12432.89</v>
+      </c>
+      <c r="C2923" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D2923" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E2923" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" s="4" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B2924" t="n">
+        <v>12559.02</v>
+      </c>
+      <c r="C2924" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="D2924" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E2924" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B2925" t="n">
+        <v>12570.55</v>
+      </c>
+      <c r="C2925" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="D2925" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E2925" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" s="4" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B2926" t="n">
+        <v>12579.45</v>
+      </c>
+      <c r="C2926" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="D2926" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E2926" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" s="4" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B2927" t="n">
+        <v>12535.4</v>
+      </c>
+      <c r="C2927" t="n">
+        <v/>
+      </c>
+      <c r="D2927" t="n">
+        <v/>
+      </c>
+      <c r="E2927" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" s="4" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B2928" t="n">
+        <v>12620.86</v>
+      </c>
+      <c r="C2928" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D2928" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2928" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" s="4" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B2929" t="n">
+        <v>12606.76</v>
+      </c>
+      <c r="C2929" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="D2929" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E2929" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" s="4" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B2930" t="n">
+        <v>12686.16</v>
+      </c>
+      <c r="C2930" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="D2930" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2930" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" s="4" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B2931" t="n">
+        <v>12655.31</v>
+      </c>
+      <c r="C2931" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D2931" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E2931" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" s="4" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B2932" t="n">
+        <v>12818.07</v>
+      </c>
+      <c r="C2932" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="D2932" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2932" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" s="4" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B2933" t="n">
+        <v>12922.26</v>
+      </c>
+      <c r="C2933" t="n">
+        <v/>
+      </c>
+      <c r="D2933" t="n">
+        <v/>
+      </c>
+      <c r="E2933" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" s="4" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B2934" t="n">
+        <v>12899.62</v>
+      </c>
+      <c r="C2934" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D2934" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2934" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" s="4" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B2935" t="n">
+        <v>12901.45</v>
+      </c>
+      <c r="C2935" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D2935" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2935" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" s="4" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B2936" t="n">
+        <v>12920.73</v>
+      </c>
+      <c r="C2936" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="D2936" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2936" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" s="4" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B2937" t="n">
+        <v>12999.37</v>
+      </c>
+      <c r="C2937" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2937" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2937" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B2938" t="n">
+        <v>12944.54</v>
+      </c>
+      <c r="C2938" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2938" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2938" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" s="4" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B2939" t="n">
+        <v>12836.81</v>
+      </c>
+      <c r="C2939" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D2939" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2939" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="4" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B2940" t="n">
+        <v>12954.28</v>
+      </c>
+      <c r="C2940" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D2940" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2940" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B2941" t="n">
+        <v>12949.87</v>
+      </c>
+      <c r="C2941" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2941" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2941" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" s="4" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B2942" t="n">
+        <v>12970.74</v>
+      </c>
+      <c r="C2942" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="D2942" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2942" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" s="4" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B2943" t="n">
+        <v>12925.27</v>
+      </c>
+      <c r="C2943" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="D2943" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2943" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" s="4" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B2944" t="n">
+        <v>12869.69</v>
+      </c>
+      <c r="C2944" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="D2944" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2944" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" s="4" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B2945" t="n">
+        <v>12827.63</v>
+      </c>
+      <c r="C2945" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2945" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2945" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2945"/>
+  <dimension ref="A1:E2950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34790,15 +34790,6 @@
       <c r="B2927" t="n">
         <v>12535.4</v>
       </c>
-      <c r="C2927" t="n">
-        <v/>
-      </c>
-      <c r="D2927" t="n">
-        <v/>
-      </c>
-      <c r="E2927" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2928">
       <c r="A2928" s="4" t="n">
@@ -34892,15 +34883,6 @@
       <c r="B2933" t="n">
         <v>12922.26</v>
       </c>
-      <c r="C2933" t="n">
-        <v/>
-      </c>
-      <c r="D2933" t="n">
-        <v/>
-      </c>
-      <c r="E2933" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2934">
       <c r="A2934" s="4" t="n">
@@ -35104,6 +35086,91 @@
       </c>
       <c r="E2945" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" s="4" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B2946" t="n">
+        <v>12774.94</v>
+      </c>
+      <c r="C2946" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2946" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2946" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" s="4" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B2947" t="n">
+        <v>12824.29</v>
+      </c>
+      <c r="C2947" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2947" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2947" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" s="4" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B2948" t="n">
+        <v>12848.44</v>
+      </c>
+      <c r="C2948" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D2948" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2948" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" s="4" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B2949" t="n">
+        <v>12942.5</v>
+      </c>
+      <c r="C2949" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="D2949" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2949" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" s="4" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B2950" t="n">
+        <v>13008.08</v>
+      </c>
+      <c r="C2950" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D2950" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2950" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2950"/>
+  <dimension ref="A1:E2986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35173,6 +35173,618 @@
         <v>1.26</v>
       </c>
     </row>
+    <row r="2951">
+      <c r="A2951" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B2951" t="n">
+        <v>13068.05</v>
+      </c>
+      <c r="C2951" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D2951" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2951" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" s="4" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B2952" t="n">
+        <v>13066.9</v>
+      </c>
+      <c r="C2952" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D2952" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2952" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" s="4" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B2953" t="n">
+        <v>13183.19</v>
+      </c>
+      <c r="C2953" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="D2953" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2953" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" s="4" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B2954" t="n">
+        <v>13251.29</v>
+      </c>
+      <c r="C2954" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="D2954" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2954" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" s="4" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B2955" t="n">
+        <v>13270.77</v>
+      </c>
+      <c r="C2955" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="D2955" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2955" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" s="4" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B2956" t="n">
+        <v>13274.62</v>
+      </c>
+      <c r="C2956" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="D2956" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E2956" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" s="4" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B2957" t="n">
+        <v>13226.57</v>
+      </c>
+      <c r="C2957" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D2957" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2957" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" s="4" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B2958" t="n">
+        <v>13170.25</v>
+      </c>
+      <c r="C2958" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="D2958" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2958" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" s="4" t="n">
+        <v>44903</v>
+      </c>
+      <c r="B2959" t="n">
+        <v>13218.46</v>
+      </c>
+      <c r="C2959" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="D2959" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E2959" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" s="4" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B2960" t="n">
+        <v>13148.22</v>
+      </c>
+      <c r="C2960" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D2960" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2960" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" s="4" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B2961" t="n">
+        <v>13169.36</v>
+      </c>
+      <c r="C2961" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="D2961" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E2961" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" s="4" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B2962" t="n">
+        <v>13229.14</v>
+      </c>
+      <c r="C2962" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="D2962" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E2962" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" s="4" t="n">
+        <v>44909</v>
+      </c>
+      <c r="B2963" t="n">
+        <v>13291.29</v>
+      </c>
+      <c r="C2963" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="D2963" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E2963" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" s="4" t="n">
+        <v>44910</v>
+      </c>
+      <c r="B2964" t="n">
+        <v>13148.91</v>
+      </c>
+      <c r="C2964" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D2964" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E2964" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" s="4" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B2965" t="n">
+        <v>12998.22</v>
+      </c>
+      <c r="C2965" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="D2965" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2965" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" s="4" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B2966" t="n">
+        <v>13085.2</v>
+      </c>
+      <c r="C2966" t="n">
+        <v>24.54</v>
+      </c>
+      <c r="D2966" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E2966" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" s="4" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B2967" t="n">
+        <v>13062.16</v>
+      </c>
+      <c r="C2967" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="D2967" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E2967" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" s="4" t="n">
+        <v>44916</v>
+      </c>
+      <c r="B2968" t="n">
+        <v>12886.02</v>
+      </c>
+      <c r="C2968" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="D2968" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2968" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" s="4" t="n">
+        <v>44917</v>
+      </c>
+      <c r="B2969" t="n">
+        <v>12796.98</v>
+      </c>
+      <c r="C2969" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2969" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2969" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" s="4" t="n">
+        <v>44918</v>
+      </c>
+      <c r="B2970" t="n">
+        <v>12437.03</v>
+      </c>
+      <c r="C2970" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="D2970" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E2970" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" s="4" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B2971" t="n">
+        <v>12675.61</v>
+      </c>
+      <c r="C2971" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D2971" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2971" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" s="4" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B2972" t="n">
+        <v>12779.65</v>
+      </c>
+      <c r="C2972" t="n">
+        <v>23.96</v>
+      </c>
+      <c r="D2972" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2972" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" s="4" t="n">
+        <v>44923</v>
+      </c>
+      <c r="B2973" t="n">
+        <v>12802.66</v>
+      </c>
+      <c r="C2973" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2973" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2973" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" s="4" t="n">
+        <v>44924</v>
+      </c>
+      <c r="B2974" t="n">
+        <v>12837.53</v>
+      </c>
+      <c r="C2974" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2974" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2974" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" s="4" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B2975" t="n">
+        <v>12838.5</v>
+      </c>
+      <c r="C2975" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2975" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2975" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" s="4" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B2976" t="n">
+        <v>12910.84</v>
+      </c>
+      <c r="C2976" t="n">
+        <v>24.41</v>
+      </c>
+      <c r="D2976" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E2976" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" s="4" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B2977" t="n">
+        <v>12939.77</v>
+      </c>
+      <c r="C2977" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="D2977" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E2977" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" s="4" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B2978" t="n">
+        <v>12810.42</v>
+      </c>
+      <c r="C2978" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="D2978" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2978" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" s="4" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B2979" t="n">
+        <v>12827.14</v>
+      </c>
+      <c r="C2979" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D2979" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2979" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" s="4" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B2980" t="n">
+        <v>12734.89</v>
+      </c>
+      <c r="C2980" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2980" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2980" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" s="4" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B2981" t="n">
+        <v>12870.3</v>
+      </c>
+      <c r="C2981" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="D2981" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E2981" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" s="4" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B2982" t="n">
+        <v>12784.9</v>
+      </c>
+      <c r="C2982" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2982" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2982" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" s="4" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B2983" t="n">
+        <v>12755.65</v>
+      </c>
+      <c r="C2983" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="D2983" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2983" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" s="4" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B2984" t="n">
+        <v>12732.21</v>
+      </c>
+      <c r="C2984" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2984" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2984" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" s="4" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B2985" t="n">
+        <v>12763.2</v>
+      </c>
+      <c r="C2985" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="D2985" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2985" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" s="4" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B2986" t="n">
+        <v>12728.66</v>
+      </c>
+      <c r="C2986" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2986" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2986" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2986"/>
+  <dimension ref="A1:E2999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35785,6 +35785,227 @@
         <v>1.29</v>
       </c>
     </row>
+    <row r="2987">
+      <c r="A2987" s="4" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B2987" t="n">
+        <v>12774.74</v>
+      </c>
+      <c r="C2987" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2987" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2987" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" s="4" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B2988" t="n">
+        <v>12833.76</v>
+      </c>
+      <c r="C2988" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2988" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2988" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" s="4" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B2989" t="n">
+        <v>12806.4</v>
+      </c>
+      <c r="C2989" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="D2989" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E2989" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" s="4" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B2990" t="n">
+        <v>12734.78</v>
+      </c>
+      <c r="C2990" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2990" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E2990" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B2991" t="n">
+        <v>12774.73</v>
+      </c>
+      <c r="C2991" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="D2991" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E2991" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" s="4" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B2992" t="n">
+        <v>12751.09</v>
+      </c>
+      <c r="C2992" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D2992" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E2992" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" s="4" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B2993" t="n">
+        <v>12577.52</v>
+      </c>
+      <c r="C2993" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D2993" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E2993" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" s="4" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B2994" t="n">
+        <v>12366.68</v>
+      </c>
+      <c r="C2994" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D2994" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E2994" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" s="4" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B2995" t="n">
+        <v>12349.37</v>
+      </c>
+      <c r="C2995" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2995" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E2995" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" s="4" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B2996" t="n">
+        <v>12454.46</v>
+      </c>
+      <c r="C2996" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="D2996" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2996" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" s="4" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B2997" t="n">
+        <v>12371</v>
+      </c>
+      <c r="C2997" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D2997" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E2997" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B2998" t="n">
+        <v>12373.47</v>
+      </c>
+      <c r="C2998" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D2998" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E2998" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" s="4" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B2999" t="n">
+        <v>12435.47</v>
+      </c>
+      <c r="C2999" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D2999" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E2999" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2999"/>
+  <dimension ref="A1:E3004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36006,6 +36006,91 @@
         <v>1.34</v>
       </c>
     </row>
+    <row r="3000">
+      <c r="A3000" s="4" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B3000" t="n">
+        <v>12462.8</v>
+      </c>
+      <c r="C3000" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D3000" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E3000" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" s="4" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B3001" t="n">
+        <v>12447.9</v>
+      </c>
+      <c r="C3001" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D3001" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E3001" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" s="4" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B3002" t="n">
+        <v>12554.3</v>
+      </c>
+      <c r="C3002" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="D3002" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E3002" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" s="4" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B3003" t="n">
+        <v>12561.18</v>
+      </c>
+      <c r="C3003" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D3003" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E3003" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" s="4" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B3004" t="n">
+        <v>12563.61</v>
+      </c>
+      <c r="C3004" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="D3004" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E3004" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3004"/>
+  <dimension ref="A1:E3021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36091,6 +36091,295 @@
         <v>1.34</v>
       </c>
     </row>
+    <row r="3005">
+      <c r="A3005" s="4" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B3005" t="n">
+        <v>12442.12</v>
+      </c>
+      <c r="C3005" t="n">
+        <v>23.14</v>
+      </c>
+      <c r="D3005" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E3005" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" s="4" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B3006" t="n">
+        <v>12459.53</v>
+      </c>
+      <c r="C3006" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="D3006" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E3006" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" s="4" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B3007" t="n">
+        <v>12522.88</v>
+      </c>
+      <c r="C3007" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="D3007" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3007" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B3008" t="n">
+        <v>12581</v>
+      </c>
+      <c r="C3008" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="D3008" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E3008" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" s="4" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B3009" t="n">
+        <v>12509.98</v>
+      </c>
+      <c r="C3009" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D3009" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E3009" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" s="4" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B3010" t="n">
+        <v>12477.43</v>
+      </c>
+      <c r="C3010" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="D3010" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E3010" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B3011" t="n">
+        <v>12453.29</v>
+      </c>
+      <c r="C3011" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D3011" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E3011" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" s="4" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B3012" t="n">
+        <v>12296.28</v>
+      </c>
+      <c r="C3012" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="D3012" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E3012" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" s="4" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B3013" t="n">
+        <v>12264.04</v>
+      </c>
+      <c r="C3013" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D3013" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E3013" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" s="4" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B3014" t="n">
+        <v>12233.48</v>
+      </c>
+      <c r="C3014" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="D3014" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E3014" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" s="4" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B3015" t="n">
+        <v>12168.85</v>
+      </c>
+      <c r="C3015" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D3015" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E3015" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B3016" t="n">
+        <v>12182.51</v>
+      </c>
+      <c r="C3016" t="n">
+        <v>22.42</v>
+      </c>
+      <c r="D3016" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E3016" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" s="4" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B3017" t="n">
+        <v>12324.19</v>
+      </c>
+      <c r="C3017" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="D3017" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E3017" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" s="4" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B3018" t="n">
+        <v>12272.5</v>
+      </c>
+      <c r="C3018" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="D3018" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E3018" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" s="4" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B3019" t="n">
+        <v>12393.69</v>
+      </c>
+      <c r="C3019" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D3019" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E3019" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" s="4" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B3020" t="n">
+        <v>12480.22</v>
+      </c>
+      <c r="C3020" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D3020" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E3020" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" s="4" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B3021" t="n">
+        <v>12517.19</v>
+      </c>
+      <c r="C3021" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D3021" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E3021" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3402"/>
+  <dimension ref="A1:E3407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3370" workbookViewId="0">
       <selection activeCell="A3392" sqref="A3392"/>
@@ -42864,6 +42864,91 @@
         <v>0.92</v>
       </c>
     </row>
+    <row r="3403">
+      <c r="A3403" s="7" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B3403" t="n">
+        <v>21832.35</v>
+      </c>
+      <c r="C3403" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="D3403" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E3403" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="7" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B3404" t="n">
+        <v>21867.53</v>
+      </c>
+      <c r="C3404" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="D3404" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E3404" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" s="7" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B3405" t="n">
+        <v>21811.64</v>
+      </c>
+      <c r="C3405" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="D3405" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E3405" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="7" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B3406" t="n">
+        <v>21899.76</v>
+      </c>
+      <c r="C3406" t="n">
+        <v>32.37</v>
+      </c>
+      <c r="D3406" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E3406" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="7" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B3407" t="n">
+        <v>21895.39</v>
+      </c>
+      <c r="C3407" t="n">
+        <v>32.37</v>
+      </c>
+      <c r="D3407" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E3407" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty largemidcap 250.xlsx
+++ b/nifty largemidcap 250.xlsx
@@ -15,11 +15,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -86,8 +87,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +454,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3407"/>
+  <dimension ref="A1:E3480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3370" workbookViewId="0">
-      <selection activeCell="A3392" sqref="A3392"/>
+    <sheetView tabSelected="1" topLeftCell="A3388" workbookViewId="0">
+      <selection activeCell="F3399" sqref="F3399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -36388,7 +36389,7 @@
       </c>
     </row>
     <row r="3022">
-      <c r="A3022" s="6" t="n">
+      <c r="A3022" s="5" t="n">
         <v>44994</v>
       </c>
       <c r="B3022" t="n">
@@ -36405,7 +36406,7 @@
       </c>
     </row>
     <row r="3023">
-      <c r="A3023" s="6" t="n">
+      <c r="A3023" s="5" t="n">
         <v>44995</v>
       </c>
       <c r="B3023" t="n">
@@ -36422,7 +36423,7 @@
       </c>
     </row>
     <row r="3024">
-      <c r="A3024" s="6" t="n">
+      <c r="A3024" s="5" t="n">
         <v>44998</v>
       </c>
       <c r="B3024" t="n">
@@ -36439,7 +36440,7 @@
       </c>
     </row>
     <row r="3025">
-      <c r="A3025" s="6" t="n">
+      <c r="A3025" s="5" t="n">
         <v>44999</v>
       </c>
       <c r="B3025" t="n">
@@ -36456,7 +36457,7 @@
       </c>
     </row>
     <row r="3026">
-      <c r="A3026" s="6" t="n">
+      <c r="A3026" s="5" t="n">
         <v>45000</v>
       </c>
       <c r="B3026" t="n">
@@ -36473,7 +36474,7 @@
       </c>
     </row>
     <row r="3027">
-      <c r="A3027" s="6" t="n">
+      <c r="A3027" s="5" t="n">
         <v>45001</v>
       </c>
       <c r="B3027" t="n">
@@ -36490,7 +36491,7 @@
       </c>
     </row>
     <row r="3028">
-      <c r="A3028" s="6" t="n">
+      <c r="A3028" s="5" t="n">
         <v>45002</v>
       </c>
       <c r="B3028" t="n">
@@ -36507,7 +36508,7 @@
       </c>
     </row>
     <row r="3029">
-      <c r="A3029" s="6" t="n">
+      <c r="A3029" s="5" t="n">
         <v>45005</v>
       </c>
       <c r="B3029" t="n">
@@ -36524,7 +36525,7 @@
       </c>
     </row>
     <row r="3030">
-      <c r="A3030" s="6" t="n">
+      <c r="A3030" s="5" t="n">
         <v>45006</v>
       </c>
       <c r="B3030" t="n">
@@ -36541,7 +36542,7 @@
       </c>
     </row>
     <row r="3031">
-      <c r="A3031" s="6" t="n">
+      <c r="A3031" s="5" t="n">
         <v>45007</v>
       </c>
       <c r="B3031" t="n">
@@ -36558,7 +36559,7 @@
       </c>
     </row>
     <row r="3032">
-      <c r="A3032" s="6" t="n">
+      <c r="A3032" s="5" t="n">
         <v>45008</v>
       </c>
       <c r="B3032" t="n">
@@ -36575,7 +36576,7 @@
       </c>
     </row>
     <row r="3033">
-      <c r="A3033" s="6" t="n">
+      <c r="A3033" s="5" t="n">
         <v>45009</v>
       </c>
       <c r="B3033" t="n">
@@ -36592,7 +36593,7 @@
       </c>
     </row>
     <row r="3034">
-      <c r="A3034" s="6" t="n">
+      <c r="A3034" s="5" t="n">
         <v>45012</v>
       </c>
       <c r="B3034" t="n">
@@ -36609,7 +36610,7 @@
       </c>
     </row>
     <row r="3035">
-      <c r="A3035" s="6" t="n">
+      <c r="A3035" s="5" t="n">
         <v>45013</v>
       </c>
       <c r="B3035" t="n">
@@ -36626,7 +36627,7 @@
       </c>
     </row>
     <row r="3036">
-      <c r="A3036" s="6" t="n">
+      <c r="A3036" s="5" t="n">
         <v>45014</v>
       </c>
       <c r="B3036" t="n">
@@ -36643,7 +36644,7 @@
       </c>
     </row>
     <row r="3037">
-      <c r="A3037" s="6" t="n">
+      <c r="A3037" s="5" t="n">
         <v>45016</v>
       </c>
       <c r="B3037" t="n">
@@ -36660,7 +36661,7 @@
       </c>
     </row>
     <row r="3038">
-      <c r="A3038" s="6" t="n">
+      <c r="A3038" s="5" t="n">
         <v>45019</v>
       </c>
       <c r="B3038" t="n">
@@ -36677,7 +36678,7 @@
       </c>
     </row>
     <row r="3039">
-      <c r="A3039" s="6" t="n">
+      <c r="A3039" s="5" t="n">
         <v>45021</v>
       </c>
       <c r="B3039" t="n">
@@ -36694,7 +36695,7 @@
       </c>
     </row>
     <row r="3040">
-      <c r="A3040" s="6" t="n">
+      <c r="A3040" s="5" t="n">
         <v>45022</v>
       </c>
       <c r="B3040" t="n">
@@ -36711,7 +36712,7 @@
       </c>
     </row>
     <row r="3041">
-      <c r="A3041" s="6" t="n">
+      <c r="A3041" s="5" t="n">
         <v>45026</v>
       </c>
       <c r="B3041" t="n">
@@ -36728,7 +36729,7 @@
       </c>
     </row>
     <row r="3042">
-      <c r="A3042" s="6" t="n">
+      <c r="A3042" s="5" t="n">
         <v>45027</v>
       </c>
       <c r="B3042" t="n">
@@ -36745,7 +36746,7 @@
       </c>
     </row>
     <row r="3043">
-      <c r="A3043" s="6" t="n">
+      <c r="A3043" s="5" t="n">
         <v>45028</v>
       </c>
       <c r="B3043" t="n">
@@ -36762,7 +36763,7 @@
       </c>
     </row>
     <row r="3044">
-      <c r="A3044" s="6" t="n">
+      <c r="A3044" s="5" t="n">
         <v>45029</v>
       </c>
       <c r="B3044" t="n">
@@ -36779,7 +36780,7 @@
       </c>
     </row>
     <row r="3045">
-      <c r="A3045" s="6" t="n">
+      <c r="A3045" s="5" t="n">
         <v>45033</v>
       </c>
       <c r="B3045" t="n">
@@ -36796,7 +36797,7 @@
       </c>
     </row>
     <row r="3046">
-      <c r="A3046" s="6" t="n">
+      <c r="A3046" s="5" t="n">
         <v>45034</v>
       </c>
       <c r="B3046" t="n">
@@ -36813,7 +36814,7 @@
       </c>
     </row>
     <row r="3047">
-      <c r="A3047" s="6" t="n">
+      <c r="A3047" s="5" t="n">
         <v>45035</v>
       </c>
       <c r="B3047" t="n">
@@ -36830,7 +36831,7 @@
       </c>
     </row>
     <row r="3048">
-      <c r="A3048" s="6" t="n">
+      <c r="A3048" s="5" t="n">
         <v>45036</v>
       </c>
       <c r="B3048" t="n">
@@ -36847,7 +36848,7 @@
       </c>
     </row>
     <row r="3049">
-      <c r="A3049" s="6" t="n">
+      <c r="A3049" s="5" t="n">
         <v>45037</v>
       </c>
       <c r="B3049" t="n">
@@ -36864,7 +36865,7 @@
       </c>
     </row>
     <row r="3050">
-      <c r="A3050" s="6" t="n">
+      <c r="A3050" s="5" t="n">
         <v>45040</v>
       </c>
       <c r="B3050" t="n">
@@ -36881,7 +36882,7 @@
       </c>
     </row>
     <row r="3051">
-      <c r="A3051" s="6" t="n">
+      <c r="A3051" s="5" t="n">
         <v>45041</v>
       </c>
       <c r="B3051" t="n">
@@ -36898,7 +36899,7 @@
       </c>
     </row>
     <row r="3052">
-      <c r="A3052" s="6" t="n">
+      <c r="A3052" s="5" t="n">
         <v>45042</v>
       </c>
       <c r="B3052" t="n">
@@ -36915,7 +36916,7 @@
       </c>
     </row>
     <row r="3053">
-      <c r="A3053" s="6" t="n">
+      <c r="A3053" s="5" t="n">
         <v>45043</v>
       </c>
       <c r="B3053" t="n">
@@ -36932,7 +36933,7 @@
       </c>
     </row>
     <row r="3054">
-      <c r="A3054" s="6" t="n">
+      <c r="A3054" s="5" t="n">
         <v>45044</v>
       </c>
       <c r="B3054" t="n">
@@ -36949,7 +36950,7 @@
       </c>
     </row>
     <row r="3055">
-      <c r="A3055" s="6" t="n">
+      <c r="A3055" s="5" t="n">
         <v>45048</v>
       </c>
       <c r="B3055" t="n">
@@ -36966,7 +36967,7 @@
       </c>
     </row>
     <row r="3056">
-      <c r="A3056" s="6" t="n">
+      <c r="A3056" s="5" t="n">
         <v>45049</v>
       </c>
       <c r="B3056" t="n">
@@ -36983,7 +36984,7 @@
       </c>
     </row>
     <row r="3057">
-      <c r="A3057" s="6" t="n">
+      <c r="A3057" s="5" t="n">
         <v>45050</v>
       </c>
       <c r="B3057" t="n">
@@ -37000,7 +37001,7 @@
       </c>
     </row>
     <row r="3058">
-      <c r="A3058" s="6" t="n">
+      <c r="A3058" s="5" t="n">
         <v>45051</v>
       </c>
       <c r="B3058" t="n">
@@ -37017,7 +37018,7 @@
       </c>
     </row>
     <row r="3059">
-      <c r="A3059" s="6" t="n">
+      <c r="A3059" s="5" t="n">
         <v>45054</v>
       </c>
       <c r="B3059" t="n">
@@ -37034,7 +37035,7 @@
       </c>
     </row>
     <row r="3060">
-      <c r="A3060" s="6" t="n">
+      <c r="A3060" s="5" t="n">
         <v>45055</v>
       </c>
       <c r="B3060" t="n">
@@ -37051,7 +37052,7 @@
       </c>
     </row>
     <row r="3061">
-      <c r="A3061" s="6" t="n">
+      <c r="A3061" s="5" t="n">
         <v>45056</v>
       </c>
       <c r="B3061" t="n">
@@ -37068,7 +37069,7 @@
       </c>
     </row>
     <row r="3062">
-      <c r="A3062" s="6" t="n">
+      <c r="A3062" s="5" t="n">
         <v>45057</v>
       </c>
       <c r="B3062" t="n">
@@ -37085,7 +37086,7 @@
       </c>
     </row>
     <row r="3063">
-      <c r="A3063" s="6" t="n">
+      <c r="A3063" s="5" t="n">
         <v>45058</v>
       </c>
       <c r="B3063" t="n">
@@ -37102,7 +37103,7 @@
       </c>
     </row>
     <row r="3064">
-      <c r="A3064" s="6" t="n">
+      <c r="A3064" s="5" t="n">
         <v>45061</v>
       </c>
       <c r="B3064" t="n">
@@ -37119,7 +37120,7 @@
       </c>
     </row>
     <row r="3065">
-      <c r="A3065" s="6" t="n">
+      <c r="A3065" s="5" t="n">
         <v>45062</v>
       </c>
       <c r="B3065" t="n">
@@ -37136,7 +37137,7 @@
       </c>
     </row>
     <row r="3066">
-      <c r="A3066" s="6" t="n">
+      <c r="A3066" s="5" t="n">
         <v>45063</v>
       </c>
       <c r="B3066" t="n">
@@ -37153,7 +37154,7 @@
       </c>
     </row>
     <row r="3067">
-      <c r="A3067" s="6" t="n">
+      <c r="A3067" s="5" t="n">
         <v>45064</v>
       </c>
       <c r="B3067" t="n">
@@ -37170,7 +37171,7 @@
       </c>
     </row>
     <row r="3068">
-      <c r="A3068" s="6" t="n">
+      <c r="A3068" s="5" t="n">
         <v>45065</v>
       </c>
       <c r="B3068" t="n">
@@ -37187,7 +37188,7 @@
       </c>
     </row>
     <row r="3069">
-      <c r="A3069" s="6" t="n">
+      <c r="A3069" s="5" t="n">
         <v>45068</v>
       </c>
       <c r="B3069" t="n">
@@ -37204,7 +37205,7 @@
       </c>
     </row>
     <row r="3070">
-      <c r="A3070" s="6" t="n">
+      <c r="A3070" s="5" t="n">
         <v>45069</v>
       </c>
       <c r="B3070" t="n">
@@ -37221,7 +37222,7 @@
       </c>
     </row>
     <row r="3071">
-      <c r="A3071" s="6" t="n">
+      <c r="A3071" s="5" t="n">
         <v>45070</v>
       </c>
       <c r="B3071" t="n">
@@ -37238,7 +37239,7 @@
       </c>
     </row>
     <row r="3072">
-      <c r="A3072" s="6" t="n">
+      <c r="A3072" s="5" t="n">
         <v>45071</v>
       </c>
       <c r="B3072" t="n">
@@ -37255,7 +37256,7 @@
       </c>
     </row>
     <row r="3073">
-      <c r="A3073" s="6" t="n">
+      <c r="A3073" s="5" t="n">
         <v>45072</v>
       </c>
       <c r="B3073" t="n">
@@ -37272,7 +37273,7 @@
       </c>
     </row>
     <row r="3074">
-      <c r="A3074" s="6" t="n">
+      <c r="A3074" s="5" t="n">
         <v>45075</v>
       </c>
       <c r="B3074" t="n">
@@ -37289,7 +37290,7 @@
       </c>
     </row>
     <row r="3075">
-      <c r="A3075" s="6" t="n">
+      <c r="A3075" s="5" t="n">
         <v>45076</v>
       </c>
       <c r="B3075" t="n">
@@ -37306,7 +37307,7 @@
       </c>
     </row>
     <row r="3076">
-      <c r="A3076" s="6" t="n">
+      <c r="A3076" s="5" t="n">
         <v>45077</v>
       </c>
       <c r="B3076" t="n">
@@ -37323,7 +37324,7 @@
       </c>
     </row>
     <row r="3077">
-      <c r="A3077" s="6" t="n">
+      <c r="A3077" s="5" t="n">
         <v>45078</v>
       </c>
       <c r="B3077" t="n">
@@ -37340,7 +37341,7 @@
       </c>
     </row>
     <row r="3078">
-      <c r="A3078" s="6" t="n">
+      <c r="A3078" s="5" t="n">
         <v>45079</v>
       </c>
       <c r="B3078" t="n">
@@ -37357,7 +37358,7 @@
       </c>
     </row>
     <row r="3079">
-      <c r="A3079" s="6" t="n">
+      <c r="A3079" s="5" t="n">
         <v>45082</v>
       </c>
       <c r="B3079" t="n">
@@ -37374,7 +37375,7 @@
       </c>
     </row>
     <row r="3080">
-      <c r="A3080" s="6" t="n">
+      <c r="A3080" s="5" t="n">
         <v>45083</v>
       </c>
       <c r="B3080" t="n">
@@ -37391,7 +37392,7 @@
       </c>
     </row>
     <row r="3081">
-      <c r="A3081" s="6" t="n">
+      <c r="A3081" s="5" t="n">
         <v>45084</v>
       </c>
       <c r="B3081" t="n">
@@ -37408,7 +37409,7 @@
       </c>
     </row>
     <row r="3082">
-      <c r="A3082" s="6" t="n">
+      <c r="A3082" s="5" t="n">
         <v>45085</v>
       </c>
       <c r="B3082" t="n">
@@ -37425,7 +37426,7 @@
       </c>
     </row>
     <row r="3083">
-      <c r="A3083" s="6" t="n">
+      <c r="A3083" s="5" t="n">
         <v>45086</v>
       </c>
       <c r="B3083" t="n">
@@ -37442,7 +37443,7 @@
       </c>
     </row>
     <row r="3084">
-      <c r="A3084" s="6" t="n">
+      <c r="A3084" s="5" t="n">
         <v>45089</v>
       </c>
       <c r="B3084" t="n">
@@ -37459,7 +37460,7 @@
       </c>
     </row>
     <row r="3085">
-      <c r="A3085" s="6" t="n">
+      <c r="A3085" s="5" t="n">
         <v>45090</v>
       </c>
       <c r="B3085" t="n">
@@ -37476,7 +37477,7 @@
       </c>
     </row>
     <row r="3086">
-      <c r="A3086" s="6" t="n">
+      <c r="A3086" s="5" t="n">
         <v>45091</v>
       </c>
       <c r="B3086" t="n">
@@ -37493,7 +37494,7 @@
       </c>
     </row>
     <row r="3087">
-      <c r="A3087" s="6" t="n">
+      <c r="A3087" s="5" t="n">
         <v>45092</v>
       </c>
       <c r="B3087" t="n">
@@ -37510,7 +37511,7 @@
       </c>
     </row>
     <row r="3088">
-      <c r="A3088" s="6" t="n">
+      <c r="A3088" s="5" t="n">
         <v>45093</v>
       </c>
       <c r="B3088" t="n">
@@ -37527,7 +37528,7 @@
       </c>
     </row>
     <row r="3089">
-      <c r="A3089" s="6" t="n">
+      <c r="A3089" s="5" t="n">
         <v>45096</v>
       </c>
       <c r="B3089" t="n">
@@ -37544,7 +37545,7 @@
       </c>
     </row>
     <row r="3090">
-      <c r="A3090" s="6" t="n">
+      <c r="A3090" s="5" t="n">
         <v>45097</v>
       </c>
       <c r="B3090" t="n">
@@ -37561,7 +37562,7 @@
       </c>
     </row>
     <row r="3091">
-      <c r="A3091" s="6" t="n">
+      <c r="A3091" s="5" t="n">
         <v>45098</v>
       </c>
       <c r="B3091" t="n">
@@ -37578,7 +37579,7 @@
       </c>
     </row>
     <row r="3092">
-      <c r="A3092" s="6" t="n">
+      <c r="A3092" s="5" t="n">
         <v>45099</v>
       </c>
       <c r="B3092" t="n">
@@ -37595,7 +37596,7 @@
       </c>
     </row>
     <row r="3093">
-      <c r="A3093" s="6" t="n">
+      <c r="A3093" s="5" t="n">
         <v>45100</v>
       </c>
       <c r="B3093" t="n">
@@ -37612,7 +37613,7 @@
       </c>
     </row>
     <row r="3094">
-      <c r="A3094" s="6" t="n">
+      <c r="A3094" s="5" t="n">
         <v>45103</v>
       </c>
       <c r="B3094" t="n">
@@ -37629,7 +37630,7 @@
       </c>
     </row>
     <row r="3095">
-      <c r="A3095" s="6" t="n">
+      <c r="A3095" s="5" t="n">
         <v>45104</v>
       </c>
       <c r="B3095" t="n">
@@ -37646,7 +37647,7 @@
       </c>
     </row>
     <row r="3096">
-      <c r="A3096" s="6" t="n">
+      <c r="A3096" s="5" t="n">
         <v>45105</v>
       </c>
       <c r="B3096" t="n">
@@ -37663,7 +37664,7 @@
       </c>
     </row>
     <row r="3097">
-      <c r="A3097" s="6" t="n">
+      <c r="A3097" s="5" t="n">
         <v>45107</v>
       </c>
       <c r="B3097" t="n">
@@ -37680,7 +37681,7 @@
       </c>
     </row>
     <row r="3098">
-      <c r="A3098" s="6" t="n">
+      <c r="A3098" s="5" t="n">
         <v>45110</v>
       </c>
       <c r="B3098" t="n">
@@ -37697,7 +37698,7 @@
       </c>
     </row>
     <row r="3099">
-      <c r="A3099" s="6" t="n">
+      <c r="A3099" s="5" t="n">
         <v>45111</v>
       </c>
       <c r="B3099" t="n">
@@ -37714,7 +37715,7 @@
       </c>
     </row>
     <row r="3100">
-      <c r="A3100" s="6" t="n">
+      <c r="A3100" s="5" t="n">
         <v>45112</v>
       </c>
       <c r="B3100" t="n">
@@ -37731,7 +37732,7 @@
       </c>
     </row>
     <row r="3101">
-      <c r="A3101" s="6" t="n">
+      <c r="A3101" s="5" t="n">
         <v>45113</v>
       </c>
       <c r="B3101" t="n">
@@ -37748,7 +37749,7 @@
       </c>
     </row>
     <row r="3102">
-      <c r="A3102" s="6" t="n">
+      <c r="A3102" s="5" t="n">
         <v>45114</v>
       </c>
       <c r="B3102" t="n">
@@ -37765,7 +37766,7 @@
       </c>
     </row>
     <row r="3103">
-      <c r="A3103" s="6" t="n">
+      <c r="A3103" s="5" t="n">
         <v>45117</v>
       </c>
       <c r="B3103" t="n">
@@ -37782,7 +37783,7 @@
       </c>
     </row>
     <row r="3104">
-      <c r="A3104" s="6" t="n">
+      <c r="A3104" s="5" t="n">
         <v>45118</v>
       </c>
       <c r="B3104" t="n">
@@ -37799,7 +37800,7 @@
       </c>
     </row>
     <row r="3105">
-      <c r="A3105" s="6" t="n">
+      <c r="A3105" s="5" t="n">
         <v>45119</v>
       </c>
       <c r="B3105" t="n">
@@ -37816,7 +37817,7 @@
       </c>
     </row>
     <row r="3106">
-      <c r="A3106" s="6" t="n">
+      <c r="A3106" s="5" t="n">
         <v>45120</v>
       </c>
       <c r="B3106" t="n">
@@ -37833,7 +37834,7 @@
       </c>
     </row>
     <row r="3107">
-      <c r="A3107" s="6" t="n">
+      <c r="A3107" s="5" t="n">
         <v>45121</v>
       </c>
       <c r="B3107" t="n">
@@ -37850,7 +37851,7 @@
       </c>
     </row>
     <row r="3108">
-      <c r="A3108" s="6" t="n">
+      <c r="A3108" s="5" t="n">
         <v>45124</v>
       </c>
       <c r="B3108" t="n">
@@ -37867,7 +37868,7 @@
       </c>
     </row>
     <row r="3109">
-      <c r="A3109" s="6" t="n">
+      <c r="A3109" s="5" t="n">
         <v>45125</v>
       </c>
       <c r="B3109" t="n">
@@ -37884,7 +37885,7 @@
       </c>
     </row>
     <row r="3110">
-      <c r="A3110" s="6" t="n">
+      <c r="A3110" s="5" t="n">
         <v>45126</v>
       </c>
       <c r="B3110" t="n">
@@ -37901,7 +37902,7 @@
       </c>
     </row>
     <row r="3111">
-      <c r="A3111" s="6" t="n">
+      <c r="A3111" s="5" t="n">
         <v>45127</v>
       </c>
       <c r="B3111" t="n">
@@ -37918,7 +37919,7 @@
       </c>
     </row>
     <row r="3112">
-      <c r="A3112" s="6" t="n">
+      <c r="A3112" s="5" t="n">
         <v>45128</v>
       </c>
       <c r="B3112" t="n">
@@ -37935,7 +37936,7 @@
       </c>
     </row>
     <row r="3113">
-      <c r="A3113" s="6" t="n">
+      <c r="A3113" s="5" t="n">
         <v>45131</v>
       </c>
       <c r="B3113" t="n">
@@ -37952,7 +37953,7 @@
       </c>
     </row>
     <row r="3114">
-      <c r="A3114" s="6" t="n">
+      <c r="A3114" s="5" t="n">
         <v>45132</v>
       </c>
       <c r="B3114" t="n">
@@ -37969,7 +37970,7 @@
       </c>
     </row>
     <row r="3115">
-      <c r="A3115" s="6" t="n">
+      <c r="A3115" s="5" t="n">
         <v>45133</v>
       </c>
       <c r="B3115" t="n">
@@ -37986,7 +37987,7 @@
       </c>
     </row>
     <row r="3116">
-      <c r="A3116" s="6" t="n">
+      <c r="A3116" s="5" t="n">
         <v>45134</v>
       </c>
       <c r="B3116" t="n">
@@ -38003,7 +38004,7 @@
       </c>
     </row>
     <row r="3117">
-      <c r="A3117" s="6" t="n">
+      <c r="A3117" s="5" t="n">
         <v>45135</v>
       </c>
       <c r="B3117" t="n">
@@ -38020,7 +38021,7 @@
       </c>
     </row>
     <row r="3118">
-      <c r="A3118" s="6" t="n">
+      <c r="A3118" s="5" t="n">
         <v>45138</v>
       </c>
       <c r="B3118" t="n">
@@ -38037,7 +38038,7 @@
       </c>
     </row>
     <row r="3119">
-      <c r="A3119" s="6" t="n">
+      <c r="A3119" s="5" t="n">
         <v>45139</v>
       </c>
       <c r="B3119" t="n">
@@ -38054,7 +38055,7 @@
       </c>
     </row>
     <row r="3120">
-      <c r="A3120" s="6" t="n">
+      <c r="A3120" s="5" t="n">
         <v>45140</v>
       </c>
       <c r="B3120" t="n">
@@ -38071,7 +38072,7 @@
       </c>
     </row>
     <row r="3121">
-      <c r="A3121" s="6" t="n">
+      <c r="A3121" s="5" t="n">
         <v>45141</v>
       </c>
       <c r="B3121" t="n">
@@ -38088,7 +38089,7 @@
       </c>
     </row>
     <row r="3122">
-      <c r="A3122" s="6" t="n">
+      <c r="A3122" s="5" t="n">
         <v>45142</v>
       </c>
       <c r="B3122" t="n">
@@ -38105,7 +38106,7 @@
       </c>
     </row>
     <row r="3123">
-      <c r="A3123" s="6" t="n">
+      <c r="A3123" s="5" t="n">
         <v>45145</v>
       </c>
       <c r="B3123" t="n">
@@ -38122,7 +38123,7 @@
       </c>
     </row>
     <row r="3124">
-      <c r="A3124" s="6" t="n">
+      <c r="A3124" s="5" t="n">
         <v>45146</v>
       </c>
       <c r="B3124" t="n">
@@ -38139,7 +38140,7 @@
       </c>
     </row>
     <row r="3125">
-      <c r="A3125" s="6" t="n">
+      <c r="A3125" s="5" t="n">
         <v>45147</v>
       </c>
       <c r="B3125" t="n">
@@ -38156,7 +38157,7 @@
       </c>
     </row>
     <row r="3126">
-      <c r="A3126" s="6" t="n">
+      <c r="A3126" s="5" t="n">
         <v>45148</v>
       </c>
       <c r="B3126" t="n">
@@ -38173,7 +38174,7 @@
       </c>
     </row>
     <row r="3127">
-      <c r="A3127" s="6" t="n">
+      <c r="A3127" s="5" t="n">
         <v>45149</v>
       </c>
       <c r="B3127" t="n">
@@ -38190,7 +38191,7 @@
       </c>
     </row>
     <row r="3128">
-      <c r="A3128" s="6" t="n">
+      <c r="A3128" s="5" t="n">
         <v>45152</v>
       </c>
       <c r="B3128" t="n">
@@ -38207,7 +38208,7 @@
       </c>
     </row>
     <row r="3129">
-      <c r="A3129" s="6" t="n">
+      <c r="A3129" s="5" t="n">
         <v>45154</v>
       </c>
       <c r="B3129" t="n">
@@ -38224,7 +38225,7 @@
       </c>
     </row>
     <row r="3130">
-      <c r="A3130" s="6" t="n">
+      <c r="A3130" s="5" t="n">
         <v>45155</v>
       </c>
       <c r="B3130" t="n">
@@ -38241,7 +38242,7 @@
       </c>
     </row>
     <row r="3131">
-      <c r="A3131" s="6" t="n">
+      <c r="A3131" s="5" t="n">
         <v>45156</v>
       </c>
       <c r="B3131" t="n">
@@ -38258,7 +38259,7 @@
       </c>
     </row>
     <row r="3132">
-      <c r="A3132" s="6" t="n">
+      <c r="A3132" s="5" t="n">
         <v>45159</v>
       </c>
       <c r="B3132" t="n">
@@ -38275,7 +38276,7 @@
       </c>
     </row>
     <row r="3133">
-      <c r="A3133" s="6" t="n">
+      <c r="A3133" s="5" t="n">
         <v>45160</v>
       </c>
       <c r="B3133" t="n">
@@ -38292,7 +38293,7 @@
       </c>
     </row>
     <row r="3134">
-      <c r="A3134" s="6" t="n">
+      <c r="A3134" s="5" t="n">
         <v>45161</v>
       </c>
       <c r="B3134" t="n">
@@ -38309,7 +38310,7 @@
       </c>
     </row>
     <row r="3135">
-      <c r="A3135" s="6" t="n">
+      <c r="A3135" s="5" t="n">
         <v>45162</v>
       </c>
       <c r="B3135" t="n">
@@ -38326,7 +38327,7 @@
       </c>
     </row>
     <row r="3136">
-      <c r="A3136" s="6" t="n">
+      <c r="A3136" s="5" t="n">
         <v>45163</v>
       </c>
       <c r="B3136" t="n">
@@ -38343,7 +38344,7 @@
       </c>
     </row>
     <row r="3137">
-      <c r="A3137" s="6" t="n">
+      <c r="A3137" s="5" t="n">
         <v>45166</v>
       </c>
       <c r="B3137" t="n">
@@ -38360,7 +38361,7 @@
       </c>
     </row>
     <row r="3138">
-      <c r="A3138" s="6" t="n">
+      <c r="A3138" s="5" t="n">
         <v>45167</v>
       </c>
       <c r="B3138" t="n">
@@ -38377,7 +38378,7 @@
       </c>
     </row>
     <row r="3139">
-      <c r="A3139" s="6" t="n">
+      <c r="A3139" s="5" t="n">
         <v>45168</v>
       </c>
       <c r="B3139" t="n">
@@ -38394,7 +38395,7 @@
       </c>
     </row>
     <row r="3140">
-      <c r="A3140" s="6" t="n">
+      <c r="A3140" s="5" t="n">
         <v>45169</v>
       </c>
       <c r="B3140" t="n">
@@ -38411,7 +38412,7 @@
       </c>
     </row>
     <row r="3141">
-      <c r="A3141" s="6" t="n">
+      <c r="A3141" s="5" t="n">
         <v>45170</v>
       </c>
       <c r="B3141" t="n">
@@ -38428,7 +38429,7 @@
       </c>
     </row>
     <row r="3142">
-      <c r="A3142" s="6" t="n">
+      <c r="A3142" s="5" t="n">
         <v>45173</v>
       </c>
       <c r="B3142" t="n">
@@ -38445,7 +38446,7 @@
       </c>
     </row>
     <row r="3143">
-      <c r="A3143" s="6" t="n">
+      <c r="A3143" s="5" t="n">
         <v>45174</v>
       </c>
       <c r="B3143" t="n">
@@ -38462,7 +38463,7 @@
       </c>
     </row>
     <row r="3144">
-      <c r="A3144" s="6" t="n">
+      <c r="A3144" s="5" t="n">
         <v>45175</v>
       </c>
       <c r="B3144" t="n">
@@ -38479,7 +38480,7 @@
       </c>
     </row>
     <row r="3145">
-      <c r="A3145" s="6" t="n">
+      <c r="A3145" s="5" t="n">
         <v>45176</v>
       </c>
       <c r="B3145" t="n">
@@ -38496,7 +38497,7 @@
       </c>
     </row>
     <row r="3146">
-      <c r="A3146" s="6" t="n">
+      <c r="A3146" s="5" t="n">
         <v>45177</v>
       </c>
       <c r="B3146" t="n">
@@ -38513,7 +38514,7 @@
       </c>
     </row>
     <row r="3147">
-      <c r="A3147" s="6" t="n">
+      <c r="A3147" s="5" t="n">
         <v>45180</v>
       </c>
       <c r="B3147" t="n">
@@ -38530,7 +38531,7 @@
       </c>
     </row>
     <row r="3148">
-      <c r="A3148" s="6" t="n">
+      <c r="A3148" s="5" t="n">
         <v>45181</v>
       </c>
       <c r="B3148" t="n">
@@ -38547,7 +38548,7 @@
       </c>
     </row>
     <row r="3149">
-      <c r="A3149" s="6" t="n">
+      <c r="A3149" s="5" t="n">
         <v>45182</v>
       </c>
       <c r="B3149" t="n">
@@ -38564,7 +38565,7 @@
       </c>
     </row>
     <row r="3150">
-      <c r="A3150" s="6" t="n">
+      <c r="A3150" s="5" t="n">
         <v>45183</v>
       </c>
       <c r="B3150" t="n">
@@ -38581,7 +38582,7 @@
       </c>
     </row>
     <row r="3151">
-      <c r="A3151" s="6" t="n">
+      <c r="A3151" s="5" t="n">
         <v>45184</v>
       </c>
       <c r="B3151" t="n">
@@ -38598,7 +38599,7 @@
       </c>
     </row>
     <row r="3152">
-      <c r="A3152" s="6" t="n">
+      <c r="A3152" s="5" t="n">
         <v>45187</v>
       </c>
       <c r="B3152" t="n">
@@ -38615,7 +38616,7 @@
       </c>
     </row>
     <row r="3153">
-      <c r="A3153" s="6" t="n">
+      <c r="A3153" s="5" t="n">
         <v>45189</v>
       </c>
       <c r="B3153" t="n">
@@ -38632,7 +38633,7 @@
       </c>
     </row>
     <row r="3154">
-      <c r="A3154" s="6" t="n">
+      <c r="A3154" s="5" t="n">
         <v>45190</v>
       </c>
       <c r="B3154" t="n">
@@ -38649,7 +38650,7 @@
       </c>
     </row>
     <row r="3155">
-      <c r="A3155" s="6" t="n">
+      <c r="A3155" s="5" t="n">
         <v>45191</v>
       </c>
       <c r="B3155" t="n">
@@ -38666,7 +38667,7 @@
       </c>
     </row>
     <row r="3156">
-      <c r="A3156" s="6" t="n">
+      <c r="A3156" s="5" t="n">
         <v>45194</v>
       </c>
       <c r="B3156" t="n">
@@ -38683,7 +38684,7 @@
       </c>
     </row>
     <row r="3157">
-      <c r="A3157" s="6" t="n">
+      <c r="A3157" s="5" t="n">
         <v>45195</v>
       </c>
       <c r="B3157" t="n">
@@ -38700,7 +38701,7 @@
       </c>
     </row>
     <row r="3158">
-      <c r="A3158" s="6" t="n">
+      <c r="A3158" s="5" t="n">
         <v>45196</v>
       </c>
       <c r="B3158" t="n">
@@ -38717,7 +38718,7 @@
       </c>
     </row>
     <row r="3159">
-      <c r="A3159" s="6" t="n">
+      <c r="A3159" s="5" t="n">
         <v>45197</v>
       </c>
       <c r="B3159" t="n">
@@ -38734,7 +38735,7 @@
       </c>
     </row>
     <row r="3160">
-      <c r="A3160" s="6" t="n">
+      <c r="A3160" s="5" t="n">
         <v>45198</v>
       </c>
       <c r="B3160" t="n">
@@ -38751,7 +38752,7 @@
       </c>
     </row>
     <row r="3161">
-      <c r="A3161" s="6" t="n">
+      <c r="A3161" s="5" t="n">
         <v>45202</v>
       </c>
       <c r="B3161" t="n">
@@ -38768,7 +38769,7 @@
       </c>
     </row>
     <row r="3162">
-      <c r="A3162" s="6" t="n">
+      <c r="A3162" s="5" t="n">
         <v>45203</v>
       </c>
       <c r="B3162" t="n">
@@ -38785,7 +38786,7 @@
       </c>
     </row>
     <row r="3163">
-      <c r="A3163" s="6" t="n">
+      <c r="A3163" s="5" t="n">
         <v>45204</v>
       </c>
       <c r="B3163" t="n">
@@ -38802,7 +38803,7 @@
       </c>
     </row>
     <row r="3164">
-      <c r="A3164" s="6" t="n">
+      <c r="A3164" s="5" t="n">
         <v>45205</v>
       </c>
       <c r="B3164" t="n">
@@ -38819,7 +38820,7 @@
       </c>
     </row>
     <row r="3165">
-      <c r="A3165" s="6" t="n">
+      <c r="A3165" s="5" t="n">
         <v>45208</v>
       </c>
       <c r="B3165" t="n">
@@ -38836,7 +38837,7 @@
       </c>
     </row>
     <row r="3166">
-      <c r="A3166" s="6" t="n">
+      <c r="A3166" s="5" t="n">
         <v>45209</v>
       </c>
       <c r="B3166" t="n">
@@ -38853,7 +38854,7 @@
       </c>
     </row>
     <row r="3167">
-      <c r="A3167" s="6" t="n">
+      <c r="A3167" s="5" t="n">
         <v>45210</v>
       </c>
       <c r="B3167" t="n">
@@ -38870,7 +38871,7 @@
       </c>
     </row>
     <row r="3168">
-      <c r="A3168" s="6" t="n">
+      <c r="A3168" s="5" t="n">
         <v>45211</v>
       </c>
       <c r="B3168" t="n">
@@ -38887,7 +38888,7 @@
       </c>
     </row>
     <row r="3169">
-      <c r="A3169" s="6" t="n">
+      <c r="A3169" s="5" t="n">
         <v>45212</v>
       </c>
       <c r="B3169" t="n">
@@ -38904,7 +38905,7 @@
       </c>
     </row>
     <row r="3170">
-      <c r="A3170" s="6" t="n">
+      <c r="A3170" s="5" t="n">
         <v>45215</v>
       </c>
       <c r="B3170" t="n">
@@ -38921,7 +38922,7 @@
       </c>
     </row>
     <row r="3171">
-      <c r="A3171" s="6" t="n">
+      <c r="A3171" s="5" t="n">
         <v>45216</v>
       </c>
       <c r="B3171" t="n">
@@ -38938,7 +38939,7 @@
       </c>
     </row>
     <row r="3172">
-      <c r="A3172" s="6" t="n">
+      <c r="A3172" s="5" t="n">
         <v>45217</v>
       </c>
       <c r="B3172" t="n">
@@ -38955,7 +38956,7 @@
       </c>
     </row>
     <row r="3173">
-      <c r="A3173" s="6" t="n">
+      <c r="A3173" s="5" t="n">
         <v>45218</v>
       </c>
       <c r="B3173" t="n">
@@ -38972,7 +38973,7 @@
       </c>
     </row>
     <row r="3174">
-      <c r="A3174" s="6" t="n">
+      <c r="A3174" s="5" t="n">
         <v>45219</v>
       </c>
       <c r="B3174" t="n">
@@ -38989,7 +38990,7 @@
       </c>
     </row>
     <row r="3175">
-      <c r="A3175" s="6" t="n">
+      <c r="A3175" s="5" t="n">
         <v>45222</v>
       </c>
       <c r="B3175" t="n">
@@ -39006,7 +39007,7 @@
       </c>
     </row>
     <row r="3176">
-      <c r="A3176" s="6" t="n">
+      <c r="A3176" s="5" t="n">
         <v>45224</v>
       </c>
       <c r="B3176" t="n">
@@ -39023,7 +39024,7 @@
       </c>
     </row>
     <row r="3177">
-      <c r="A3177" s="6" t="n">
+      <c r="A3177" s="5" t="n">
         <v>45225</v>
       </c>
       <c r="B3177" t="n">
@@ -39040,7 +39041,7 @@
       </c>
     </row>
     <row r="3178">
-      <c r="A3178" s="6" t="n">
+      <c r="A3178" s="5" t="n">
         <v>45226</v>
       </c>
       <c r="B3178" t="n">
@@ -39057,7 +39058,7 @@
       </c>
     </row>
     <row r="3179">
-      <c r="A3179" s="6" t="n">
+      <c r="A3179" s="5" t="n">
         <v>45229</v>
       </c>
       <c r="B3179" t="n">
@@ -39074,7 +39075,7 @@
       </c>
     </row>
     <row r="3180">
-      <c r="A3180" s="6" t="n">
+      <c r="A3180" s="5" t="n">
         <v>45230</v>
       </c>
       <c r="B3180" t="n">
@@ -39091,7 +39092,7 @@
       </c>
     </row>
     <row r="3181">
-      <c r="A3181" s="6" t="n">
+      <c r="A3181" s="5" t="n">
         <v>45231</v>
       </c>
       <c r="B3181" t="n">
@@ -39108,7 +39109,7 @@
       </c>
     </row>
     <row r="3182">
-      <c r="A3182" s="6" t="n">
+      <c r="A3182" s="5" t="n">
         <v>45232</v>
       </c>
       <c r="B3182" t="n">
@@ -39125,7 +39126,7 @@
       </c>
     </row>
     <row r="3183">
-      <c r="A3183" s="6" t="n">
+      <c r="A3183" s="5" t="n">
         <v>45233</v>
       </c>
       <c r="B3183" t="n">
@@ -39142,7 +39143,7 @@
       </c>
     </row>
     <row r="3184">
-      <c r="A3184" s="6" t="n">
+      <c r="A3184" s="5" t="n">
         <v>45236</v>
       </c>
       <c r="B3184" t="n">
@@ -39159,7 +39160,7 @@
       </c>
     </row>
     <row r="3185">
-      <c r="A3185" s="6" t="n">
+      <c r="A3185" s="5" t="n">
         <v>45237</v>
       </c>
       <c r="B3185" t="n">
@@ -39176,7 +39177,7 @@
       </c>
     </row>
     <row r="3186">
-      <c r="A3186" s="6" t="n">
+      <c r="A3186" s="5" t="n">
         <v>45238</v>
       </c>
       <c r="B3186" t="n">
@@ -39193,7 +39194,7 @@
       </c>
     </row>
     <row r="3187">
-      <c r="A3187" s="6" t="n">
+      <c r="A3187" s="5" t="n">
         <v>45239</v>
       </c>
       <c r="B3187" t="n">
@@ -39210,7 +39211,7 @@
       </c>
     </row>
     <row r="3188">
-      <c r="A3188" s="6" t="n">
+      <c r="A3188" s="5" t="n">
         <v>45240</v>
       </c>
       <c r="B3188" t="n">
@@ -39227,7 +39228,7 @@
       </c>
     </row>
     <row r="3189">
-      <c r="A3189" s="6" t="n">
+      <c r="A3189" s="5" t="n">
         <v>45242</v>
       </c>
       <c r="B3189" t="n">
@@ -39244,7 +39245,7 @@
       </c>
     </row>
     <row r="3190">
-      <c r="A3190" s="6" t="n">
+      <c r="A3190" s="5" t="n">
         <v>45243</v>
       </c>
       <c r="B3190" t="n">
@@ -39261,7 +39262,7 @@
       </c>
     </row>
     <row r="3191">
-      <c r="A3191" s="6" t="n">
+      <c r="A3191" s="5" t="n">
         <v>45245</v>
       </c>
       <c r="B3191" t="n">
@@ -39278,7 +39279,7 @@
       </c>
     </row>
     <row r="3192">
-      <c r="A3192" s="6" t="n">
+      <c r="A3192" s="5" t="n">
         <v>45246</v>
       </c>
       <c r="B3192" t="n">
@@ -39295,7 +39296,7 @@
       </c>
     </row>
     <row r="3193">
-      <c r="A3193" s="6" t="n">
+      <c r="A3193" s="5" t="n">
         <v>45247</v>
       </c>
       <c r="B3193" t="n">
@@ -39312,7 +39313,7 @@
       </c>
     </row>
     <row r="3194">
-      <c r="A3194" s="6" t="n">
+      <c r="A3194" s="5" t="n">
         <v>45250</v>
       </c>
       <c r="B3194" t="n">
@@ -39329,7 +39330,7 @@
       </c>
     </row>
     <row r="3195">
-      <c r="A3195" s="6" t="n">
+      <c r="A3195" s="5" t="n">
         <v>45251</v>
       </c>
       <c r="B3195" t="n">
@@ -39346,7 +39347,7 @@
       </c>
     </row>
     <row r="3196">
-      <c r="A3196" s="6" t="n">
+      <c r="A3196" s="5" t="n">
         <v>45252</v>
       </c>
       <c r="B3196" t="n">
@@ -39363,7 +39364,7 @@
       </c>
     </row>
     <row r="3197">
-      <c r="A3197" s="6" t="n">
+      <c r="A3197" s="5" t="n">
         <v>45253</v>
       </c>
       <c r="B3197" t="n">
@@ -39380,7 +39381,7 @@
       </c>
     </row>
     <row r="3198">
-      <c r="A3198" s="6" t="n">
+      <c r="A3198" s="5" t="n">
         <v>45254</v>
       </c>
       <c r="B3198" t="n">
@@ -39397,7 +39398,7 @@
       </c>
     </row>
     <row r="3199">
-      <c r="A3199" s="6" t="n">
+      <c r="A3199" s="5" t="n">
         <v>45258</v>
       </c>
       <c r="B3199" t="n">
@@ -39414,7 +39415,7 @@
       </c>
     </row>
     <row r="3200">
-      <c r="A3200" s="6" t="n">
+      <c r="A3200" s="5" t="n">
         <v>45259</v>
       </c>
       <c r="B3200" t="n">
@@ -39431,7 +39432,7 @@
       </c>
     </row>
     <row r="3201">
-      <c r="A3201" s="6" t="n">
+      <c r="A3201" s="5" t="n">
         <v>45260</v>
       </c>
       <c r="B3201" t="n">
@@ -39448,7 +39449,7 @@
       </c>
     </row>
     <row r="3202">
-      <c r="A3202" s="6" t="n">
+      <c r="A3202" s="5" t="n">
         <v>45261</v>
       </c>
       <c r="B3202" t="n">
@@ -39465,7 +39466,7 @@
       </c>
     </row>
     <row r="3203">
-      <c r="A3203" s="6" t="n">
+      <c r="A3203" s="5" t="n">
         <v>45264</v>
       </c>
       <c r="B3203" t="n">
@@ -39482,7 +39483,7 @@
       </c>
     </row>
     <row r="3204">
-      <c r="A3204" s="6" t="n">
+      <c r="A3204" s="5" t="n">
         <v>45265</v>
       </c>
       <c r="B3204" t="n">
@@ -39499,7 +39500,7 @@
       </c>
     </row>
     <row r="3205">
-      <c r="A3205" s="6" t="n">
+      <c r="A3205" s="5" t="n">
         <v>45266</v>
       </c>
       <c r="B3205" t="n">
@@ -39516,7 +39517,7 @@
       </c>
     </row>
     <row r="3206">
-      <c r="A3206" s="6" t="n">
+      <c r="A3206" s="5" t="n">
         <v>45267</v>
       </c>
       <c r="B3206" t="n">
@@ -39533,7 +39534,7 @@
       </c>
     </row>
     <row r="3207">
-      <c r="A3207" s="6" t="n">
+      <c r="A3207" s="5" t="n">
         <v>45268</v>
       </c>
       <c r="B3207" t="n">
@@ -39550,7 +39551,7 @@
       </c>
     </row>
     <row r="3208">
-      <c r="A3208" s="6" t="n">
+      <c r="A3208" s="5" t="n">
         <v>45271</v>
       </c>
       <c r="B3208" t="n">
@@ -39567,7 +39568,7 @@
       </c>
     </row>
     <row r="3209">
-      <c r="A3209" s="6" t="n">
+      <c r="A3209" s="5" t="n">
         <v>45272</v>
       </c>
       <c r="B3209" t="n">
@@ -39584,7 +39585,7 @@
       </c>
     </row>
     <row r="3210">
-      <c r="A3210" s="6" t="n">
+      <c r="A3210" s="5" t="n">
         <v>45273</v>
       </c>
       <c r="B3210" t="n">
@@ -39601,7 +39602,7 @@
       </c>
     </row>
     <row r="3211">
-      <c r="A3211" s="6" t="n">
+      <c r="A3211" s="5" t="n">
         <v>45274</v>
       </c>
       <c r="B3211" t="n">
@@ -39618,7 +39619,7 @@
       </c>
     </row>
     <row r="3212">
-      <c r="A3212" s="6" t="n">
+      <c r="A3212" s="5" t="n">
         <v>45275</v>
       </c>
       <c r="B3212" t="n">
@@ -39635,7 +39636,7 @@
       </c>
     </row>
     <row r="3213">
-      <c r="A3213" s="6" t="n">
+      <c r="A3213" s="5" t="n">
         <v>45278</v>
       </c>
       <c r="B3213" t="n">
@@ -39652,7 +39653,7 @@
       </c>
     </row>
     <row r="3214">
-      <c r="A3214" s="6" t="n">
+      <c r="A3214" s="5" t="n">
         <v>45279</v>
       </c>
       <c r="B3214" t="n">
@@ -39669,7 +39670,7 @@
       </c>
     </row>
     <row r="3215">
-      <c r="A3215" s="6" t="n">
+      <c r="A3215" s="5" t="n">
         <v>45280</v>
       </c>
       <c r="B3215" t="n">
@@ -39686,7 +39687,7 @@
       </c>
     </row>
     <row r="3216">
-      <c r="A3216" s="6" t="n">
+      <c r="A3216" s="5" t="n">
         <v>45281</v>
       </c>
       <c r="B3216" t="n">
@@ -39703,7 +39704,7 @@
       </c>
     </row>
     <row r="3217">
-      <c r="A3217" s="6" t="n">
+      <c r="A3217" s="5" t="n">
         <v>45282</v>
       </c>
       <c r="B3217" t="n">
@@ -39720,7 +39721,7 @@
       </c>
     </row>
     <row r="3218">
-      <c r="A3218" s="6" t="n">
+      <c r="A3218" s="5" t="n">
         <v>45286</v>
       </c>
       <c r="B3218" t="n">
@@ -39737,7 +39738,7 @@
       </c>
     </row>
     <row r="3219">
-      <c r="A3219" s="6" t="n">
+      <c r="A3219" s="5" t="n">
         <v>45287</v>
       </c>
       <c r="B3219" t="n">
@@ -39754,7 +39755,7 @@
       </c>
     </row>
     <row r="3220">
-      <c r="A3220" s="6" t="n">
+      <c r="A3220" s="5" t="n">
         <v>45288</v>
       </c>
       <c r="B3220" t="n">
@@ -39771,7 +39772,7 @@
       </c>
     </row>
     <row r="3221">
-      <c r="A3221" s="6" t="n">
+      <c r="A3221" s="5" t="n">
         <v>45289</v>
       </c>
       <c r="B3221" t="n">
@@ -39788,7 +39789,7 @@
       </c>
     </row>
     <row r="3222">
-      <c r="A3222" s="6" t="n">
+      <c r="A3222" s="5" t="n">
         <v>45292</v>
       </c>
       <c r="B3222" t="n">
@@ -39805,7 +39806,7 @@
       </c>
     </row>
     <row r="3223">
-      <c r="A3223" s="6" t="n">
+      <c r="A3223" s="5" t="n">
         <v>45293</v>
       </c>
       <c r="B3223" t="n">
@@ -39822,7 +39823,7 @@
       </c>
     </row>
     <row r="3224">
-      <c r="A3224" s="6" t="n">
+      <c r="A3224" s="5" t="n">
         <v>45294</v>
       </c>
       <c r="B3224" t="n">
@@ -39839,7 +39840,7 @@
       </c>
     </row>
     <row r="3225">
-      <c r="A3225" s="6" t="n">
+      <c r="A3225" s="5" t="n">
         <v>45295</v>
       </c>
       <c r="B3225" t="n">
@@ -39856,7 +39857,7 @@
       </c>
     </row>
     <row r="3226">
-      <c r="A3226" s="6" t="n">
+      <c r="A3226" s="5" t="n">
         <v>45296</v>
       </c>
       <c r="B3226" t="n">
@@ -39873,7 +39874,7 @@
       </c>
     </row>
     <row r="3227">
-      <c r="A3227" s="6" t="n">
+      <c r="A3227" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="B3227" t="n">
@@ -39890,7 +39891,7 @@
       </c>
     </row>
     <row r="3228">
-      <c r="A3228" s="6" t="n">
+      <c r="A3228" s="5" t="n">
         <v>45300</v>
       </c>
       <c r="B3228" t="n">
@@ -39907,7 +39908,7 @@
       </c>
     </row>
     <row r="3229">
-      <c r="A3229" s="6" t="n">
+      <c r="A3229" s="5" t="n">
         <v>45301</v>
       </c>
       <c r="B3229" t="n">
@@ -39924,7 +39925,7 @@
       </c>
     </row>
     <row r="3230">
-      <c r="A3230" s="6" t="n">
+      <c r="A3230" s="5" t="n">
         <v>45302</v>
       </c>
       <c r="B3230" t="n">
@@ -39941,7 +39942,7 @@
       </c>
     </row>
     <row r="3231">
-      <c r="A3231" s="6" t="n">
+      <c r="A3231" s="5" t="n">
         <v>45303</v>
       </c>
       <c r="B3231" t="n">
@@ -39958,7 +39959,7 @@
       </c>
     </row>
     <row r="3232">
-      <c r="A3232" s="6" t="n">
+      <c r="A3232" s="5" t="n">
         <v>45306</v>
       </c>
       <c r="B3232" t="n">
@@ -39975,7 +39976,7 @@
       </c>
     </row>
     <row r="3233">
-      <c r="A3233" s="6" t="n">
+      <c r="A3233" s="5" t="n">
         <v>45307</v>
       </c>
       <c r="B3233" t="n">
@@ -39992,7 +39993,7 @@
       </c>
     </row>
     <row r="3234">
-      <c r="A3234" s="6" t="n">
+      <c r="A3234" s="5" t="n">
         <v>45308</v>
       </c>
       <c r="B3234" t="n">
@@ -40009,7 +40010,7 @@
       </c>
     </row>
     <row r="3235">
-      <c r="A3235" s="6" t="n">
+      <c r="A3235" s="5" t="n">
         <v>45309</v>
       </c>
       <c r="B3235" t="n">
@@ -40026,7 +40027,7 @@
       </c>
     </row>
     <row r="3236">
-      <c r="A3236" s="6" t="n">
+      <c r="A3236" s="5" t="n">
         <v>45310</v>
       </c>
       <c r="B3236" t="n">
@@ -40043,7 +40044,7 @@
       </c>
     </row>
     <row r="3237">
-      <c r="A3237" s="6" t="n">
+      <c r="A3237" s="5" t="n">
         <v>45311</v>
       </c>
       <c r="B3237" t="n">
@@ -40060,7 +40061,7 @@
       </c>
     </row>
     <row r="3238">
-      <c r="A3238" s="6" t="n">
+      <c r="A3238" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="B3238" t="n">
@@ -40077,7 +40078,7 @@
       </c>
     </row>
     <row r="3239">
-      <c r="A3239" s="6" t="n">
+      <c r="A3239" s="5" t="n">
         <v>45315</v>
       </c>
       <c r="B3239" t="n">
@@ -40094,7 +40095,7 @@
       </c>
     </row>
     <row r="3240">
-      <c r="A3240" s="6" t="n">
+      <c r="A3240" s="5" t="n">
         <v>45316</v>
       </c>
       <c r="B3240" t="n">
@@ -40111,7 +40112,7 @@
       </c>
     </row>
     <row r="3241">
-      <c r="A3241" s="6" t="n">
+      <c r="A3241" s="5" t="n">
         <v>45320</v>
       </c>
       <c r="B3241" t="n">
@@ -40128,7 +40129,7 @@
       </c>
     </row>
     <row r="3242">
-      <c r="A3242" s="6" t="n">
+      <c r="A3242" s="5" t="n">
         <v>45321</v>
       </c>
       <c r="B3242" t="n">
@@ -40145,7 +40146,7 @@
       </c>
     </row>
     <row r="3243">
-      <c r="A3243" s="6" t="n">
+      <c r="A3243" s="5" t="n">
         <v>45322</v>
       </c>
       <c r="B3243" t="n">
@@ -40162,7 +40163,7 @@
       </c>
     </row>
     <row r="3244">
-      <c r="A3244" s="6" t="n">
+      <c r="A3244" s="5" t="n">
         <v>45323</v>
       </c>
       <c r="B3244" t="n">
@@ -40179,7 +40180,7 @@
       </c>
     </row>
     <row r="3245">
-      <c r="A3245" s="6" t="n">
+      <c r="A3245" s="5" t="n">
         <v>45324</v>
       </c>
       <c r="B3245" t="n">
@@ -40196,7 +40197,7 @@
       </c>
     </row>
     <row r="3246">
-      <c r="A3246" s="6" t="n">
+      <c r="A3246" s="5" t="n">
         <v>45327</v>
       </c>
       <c r="B3246" t="n">
@@ -40213,7 +40214,7 @@
       </c>
     </row>
     <row r="3247">
-      <c r="A3247" s="6" t="n">
+      <c r="A3247" s="5" t="n">
         <v>45328</v>
       </c>
       <c r="B3247" t="n">
@@ -40230,7 +40231,7 @@
       </c>
     </row>
     <row r="3248">
-      <c r="A3248" s="6" t="n">
+      <c r="A3248" s="5" t="n">
         <v>45329</v>
       </c>
       <c r="B3248" t="n">
@@ -40247,7 +40248,7 @@
       </c>
     </row>
     <row r="3249">
-      <c r="A3249" s="6" t="n">
+      <c r="A3249" s="5" t="n">
         <v>45330</v>
       </c>
       <c r="B3249" t="n">
@@ -40264,7 +40265,7 @@
       </c>
     </row>
     <row r="3250">
-      <c r="A3250" s="6" t="n">
+      <c r="A3250" s="5" t="n">
         <v>45331</v>
       </c>
       <c r="B3250" t="n">
@@ -40281,7 +40282,7 @@
       </c>
     </row>
     <row r="3251">
-      <c r="A3251" s="6" t="n">
+      <c r="A3251" s="5" t="n">
         <v>45334</v>
       </c>
       <c r="B3251" t="n">
@@ -40298,7 +40299,7 @@
       </c>
     </row>
     <row r="3252">
-      <c r="A3252" s="6" t="n">
+      <c r="A3252" s="5" t="n">
         <v>45335</v>
       </c>
       <c r="B3252" t="n">
@@ -40315,7 +40316,7 @@
       </c>
     </row>
     <row r="3253">
-      <c r="A3253" s="6" t="n">
+      <c r="A3253" s="5" t="n">
         <v>45336</v>
       </c>
       <c r="B3253" t="n">
@@ -40332,7 +40333,7 @@
       </c>
     </row>
     <row r="3254">
-      <c r="A3254" s="6" t="n">
+      <c r="A3254" s="5" t="n">
         <v>45337</v>
       </c>
       <c r="B3254" t="n">
@@ -40349,7 +40350,7 @@
       </c>
     </row>
     <row r="3255">
-      <c r="A3255" s="6" t="n">
+      <c r="A3255" s="5" t="n">
         <v>45338</v>
       </c>
       <c r="B3255" t="n">
@@ -40366,7 +40367,7 @@
       </c>
     </row>
     <row r="3256">
-      <c r="A3256" s="6" t="n">
+      <c r="A3256" s="5" t="n">
         <v>45341</v>
       </c>
       <c r="B3256" t="n">
@@ -40383,7 +40384,7 @@
       </c>
     </row>
     <row r="3257">
-      <c r="A3257" s="6" t="n">
+      <c r="A3257" s="5" t="n">
         <v>45342</v>
       </c>
       <c r="B3257" t="n">
@@ -40400,7 +40401,7 @@
       </c>
     </row>
     <row r="3258">
-      <c r="A3258" s="6" t="n">
+      <c r="A3258" s="5" t="n">
         <v>45343</v>
       </c>
       <c r="B3258" t="n">
@@ -40417,7 +40418,7 @@
       </c>
     </row>
     <row r="3259">
-      <c r="A3259" s="6" t="n">
+      <c r="A3259" s="5" t="n">
         <v>45344</v>
       </c>
       <c r="B3259" t="n">
@@ -40434,7 +40435,7 @@
       </c>
     </row>
     <row r="3260">
-      <c r="A3260" s="6" t="n">
+      <c r="A3260" s="5" t="n">
         <v>45345</v>
       </c>
       <c r="B3260" t="n">
@@ -40451,7 +40452,7 @@
       </c>
     </row>
     <row r="3261">
-      <c r="A3261" s="6" t="n">
+      <c r="A3261" s="5" t="n">
         <v>45348</v>
       </c>
       <c r="B3261" t="n">
@@ -40468,7 +40469,7 @@
       </c>
     </row>
     <row r="3262">
-      <c r="A3262" s="6" t="n">
+      <c r="A3262" s="5" t="n">
         <v>45349</v>
       </c>
       <c r="B3262" t="n">
@@ -40485,7 +40486,7 @@
       </c>
     </row>
     <row r="3263">
-      <c r="A3263" s="6" t="n">
+      <c r="A3263" s="5" t="n">
         <v>45350</v>
       </c>
       <c r="B3263" t="n">
@@ -40502,7 +40503,7 @@
       </c>
     </row>
     <row r="3264">
-      <c r="A3264" s="6" t="n">
+      <c r="A3264" s="5" t="n">
         <v>45351</v>
       </c>
       <c r="B3264" t="n">
@@ -40519,7 +40520,7 @@
       </c>
     </row>
     <row r="3265">
-      <c r="A3265" s="6" t="n">
+      <c r="A3265" s="5" t="n">
         <v>45352</v>
       </c>
       <c r="B3265" t="n">
@@ -40536,7 +40537,7 @@
       </c>
     </row>
     <row r="3266">
-      <c r="A3266" s="6" t="n">
+      <c r="A3266" s="5" t="n">
         <v>45353</v>
       </c>
       <c r="B3266" t="n">
@@ -40553,7 +40554,7 @@
       </c>
     </row>
     <row r="3267">
-      <c r="A3267" s="6" t="n">
+      <c r="A3267" s="5" t="n">
         <v>45355</v>
       </c>
       <c r="B3267" t="n">
@@ -40570,7 +40571,7 @@
       </c>
     </row>
     <row r="3268">
-      <c r="A3268" s="6" t="n">
+      <c r="A3268" s="5" t="n">
         <v>45356</v>
       </c>
       <c r="B3268" t="n">
@@ -40587,7 +40588,7 @@
       </c>
     </row>
     <row r="3269">
-      <c r="A3269" s="6" t="n">
+      <c r="A3269" s="5" t="n">
         <v>45357</v>
       </c>
       <c r="B3269" t="n">
@@ -40604,7 +40605,7 @@
       </c>
     </row>
     <row r="3270">
-      <c r="A3270" s="6" t="n">
+      <c r="A3270" s="5" t="n">
         <v>45358</v>
       </c>
       <c r="B3270" t="n">
@@ -40621,7 +40622,7 @@
       </c>
     </row>
     <row r="3271">
-      <c r="A3271" s="6" t="n">
+      <c r="A3271" s="5" t="n">
         <v>45362</v>
       </c>
       <c r="B3271" t="n">
@@ -40638,7 +40639,7 @@
       </c>
     </row>
     <row r="3272">
-      <c r="A3272" s="6" t="n">
+      <c r="A3272" s="5" t="n">
         <v>45363</v>
       </c>
       <c r="B3272" t="n">
@@ -40655,7 +40656,7 @@
       </c>
     </row>
     <row r="3273">
-      <c r="A3273" s="6" t="n">
+      <c r="A3273" s="5" t="n">
         <v>45364</v>
       </c>
       <c r="B3273" t="n">
@@ -40672,7 +40673,7 @@
       </c>
     </row>
     <row r="3274">
-      <c r="A3274" s="6" t="n">
+      <c r="A3274" s="5" t="n">
         <v>45365</v>
       </c>
       <c r="B3274" t="n">
@@ -40689,7 +40690,7 @@
       </c>
     </row>
     <row r="3275">
-      <c r="A3275" s="6" t="n">
+      <c r="A3275" s="5" t="n">
         <v>45366</v>
       </c>
       <c r="B3275" t="n">
@@ -40706,7 +40707,7 @@
       </c>
     </row>
     <row r="3276">
-      <c r="A3276" s="6" t="n">
+      <c r="A3276" s="5" t="n">
         <v>45369</v>
       </c>
       <c r="B3276" t="n">
@@ -40723,7 +40724,7 @@
       </c>
     </row>
     <row r="3277">
-      <c r="A3277" s="6" t="n">
+      <c r="A3277" s="5" t="n">
         <v>45370</v>
       </c>
       <c r="B3277" t="n">
@@ -40740,7 +40741,7 @@
       </c>
     </row>
     <row r="3278">
-      <c r="A3278" s="6" t="n">
+      <c r="A3278" s="5" t="n">
         <v>45371</v>
       </c>
       <c r="B3278" t="n">
@@ -40757,7 +40758,7 @@
       </c>
     </row>
     <row r="3279">
-      <c r="A3279" s="6" t="n">
+      <c r="A3279" s="5" t="n">
         <v>45372</v>
       </c>
       <c r="B3279" t="n">
@@ -40774,7 +40775,7 @@
       </c>
     </row>
     <row r="3280">
-      <c r="A3280" s="6" t="n">
+      <c r="A3280" s="5" t="n">
         <v>45373</v>
       </c>
       <c r="B3280" t="n">
@@ -40791,7 +40792,7 @@
       </c>
     </row>
     <row r="3281">
-      <c r="A3281" s="6" t="n">
+      <c r="A3281" s="5" t="n">
         <v>45377</v>
       </c>
       <c r="B3281" t="n">
@@ -40808,7 +40809,7 @@
       </c>
     </row>
     <row r="3282">
-      <c r="A3282" s="6" t="n">
+      <c r="A3282" s="5" t="n">
         <v>45378</v>
       </c>
       <c r="B3282" t="n">
@@ -40825,7 +40826,7 @@
       </c>
     </row>
     <row r="3283">
-      <c r="A3283" s="6" t="n">
+      <c r="A3283" s="5" t="n">
         <v>45379</v>
       </c>
       <c r="B3283" t="n">
@@ -40842,7 +40843,7 @@
       </c>
     </row>
     <row r="3284">
-      <c r="A3284" s="6" t="n">
+      <c r="A3284" s="5" t="n">
         <v>45383</v>
       </c>
       <c r="B3284" t="n">
@@ -40859,7 +40860,7 @@
       </c>
     </row>
     <row r="3285">
-      <c r="A3285" s="6" t="n">
+      <c r="A3285" s="5" t="n">
         <v>45384</v>
       </c>
       <c r="B3285" t="n">
@@ -40876,7 +40877,7 @@
       </c>
     </row>
     <row r="3286">
-      <c r="A3286" s="6" t="n">
+      <c r="A3286" s="5" t="n">
         <v>45385</v>
       </c>
       <c r="B3286" t="n">
@@ -40893,7 +40894,7 @@
       </c>
     </row>
     <row r="3287">
-      <c r="A3287" s="6" t="n">
+      <c r="A3287" s="5" t="n">
         <v>45386</v>
       </c>
       <c r="B3287" t="n">
@@ -40910,7 +40911,7 @@
       </c>
     </row>
     <row r="3288">
-      <c r="A3288" s="6" t="n">
+      <c r="A3288" s="5" t="n">
         <v>45387</v>
       </c>
       <c r="B3288" t="n">
@@ -40927,7 +40928,7 @@
       </c>
     </row>
     <row r="3289">
-      <c r="A3289" s="6" t="n">
+      <c r="A3289" s="5" t="n">
         <v>45390</v>
       </c>
       <c r="B3289" t="n">
@@ -40944,7 +40945,7 @@
       </c>
     </row>
     <row r="3290">
-      <c r="A3290" s="6" t="n">
+      <c r="A3290" s="5" t="n">
         <v>45391</v>
       </c>
       <c r="B3290" t="n">
@@ -40961,7 +40962,7 @@
       </c>
     </row>
     <row r="3291">
-      <c r="A3291" s="6" t="n">
+      <c r="A3291" s="5" t="n">
         <v>45392</v>
       </c>
       <c r="B3291" t="n">
@@ -40978,7 +40979,7 @@
       </c>
     </row>
     <row r="3292">
-      <c r="A3292" s="6" t="n">
+      <c r="A3292" s="5" t="n">
         <v>45394</v>
       </c>
       <c r="B3292" t="n">
@@ -40995,7 +40996,7 @@
       </c>
     </row>
     <row r="3293">
-      <c r="A3293" s="6" t="n">
+      <c r="A3293" s="5" t="n">
         <v>45397</v>
       </c>
       <c r="B3293" t="n">
@@ -41012,7 +41013,7 @@
       </c>
     </row>
     <row r="3294">
-      <c r="A3294" s="6" t="n">
+      <c r="A3294" s="5" t="n">
         <v>45398</v>
       </c>
       <c r="B3294" t="n">
@@ -41029,7 +41030,7 @@
       </c>
     </row>
     <row r="3295">
-      <c r="A3295" s="6" t="n">
+      <c r="A3295" s="5" t="n">
         <v>45400</v>
       </c>
       <c r="B3295" t="n">
@@ -41046,7 +41047,7 @@
       </c>
     </row>
     <row r="3296">
-      <c r="A3296" s="6" t="n">
+      <c r="A3296" s="5" t="n">
         <v>45401</v>
       </c>
       <c r="B3296" t="n">
@@ -41063,7 +41064,7 @@
       </c>
     </row>
     <row r="3297">
-      <c r="A3297" s="6" t="n">
+      <c r="A3297" s="5" t="n">
         <v>45404</v>
       </c>
       <c r="B3297" t="n">
@@ -41080,7 +41081,7 @@
       </c>
     </row>
     <row r="3298">
-      <c r="A3298" s="6" t="n">
+      <c r="A3298" s="5" t="n">
         <v>45405</v>
       </c>
       <c r="B3298" t="n">
@@ -41097,7 +41098,7 @@
       </c>
     </row>
     <row r="3299">
-      <c r="A3299" s="6" t="n">
+      <c r="A3299" s="5" t="n">
         <v>45406</v>
       </c>
       <c r="B3299" t="n">
@@ -41114,7 +41115,7 @@
       </c>
     </row>
     <row r="3300">
-      <c r="A3300" s="6" t="n">
+      <c r="A3300" s="5" t="n">
         <v>45407</v>
       </c>
       <c r="B3300" t="n">
@@ -41131,7 +41132,7 @@
       </c>
     </row>
     <row r="3301">
-      <c r="A3301" s="6" t="n">
+      <c r="A3301" s="5" t="n">
         <v>45408</v>
       </c>
       <c r="B3301" t="n">
@@ -41148,7 +41149,7 @@
       </c>
     </row>
     <row r="3302">
-      <c r="A3302" s="6" t="n">
+      <c r="A3302" s="5" t="n">
         <v>45411</v>
       </c>
       <c r="B3302" t="n">
@@ -41165,7 +41166,7 @@
       </c>
     </row>
     <row r="3303">
-      <c r="A3303" s="6" t="n">
+      <c r="A3303" s="5" t="n">
         <v>45412</v>
       </c>
       <c r="B3303" t="n">
@@ -41182,7 +41183,7 @@
       </c>
     </row>
     <row r="3304">
-      <c r="A3304" s="6" t="n">
+      <c r="A3304" s="5" t="n">
         <v>45414</v>
       </c>
       <c r="B3304" t="n">
@@ -41199,7 +41200,7 @@
       </c>
     </row>
     <row r="3305">
-      <c r="A3305" s="6" t="n">
+      <c r="A3305" s="5" t="n">
         <v>45415</v>
       </c>
       <c r="B3305" t="n">
@@ -41216,7 +41217,7 @@
       </c>
     </row>
     <row r="3306">
-      <c r="A3306" s="6" t="n">
+      <c r="A3306" s="5" t="n">
         <v>45418</v>
       </c>
       <c r="B3306" t="n">
@@ -41233,7 +41234,7 @@
       </c>
     </row>
     <row r="3307">
-      <c r="A3307" s="6" t="n">
+      <c r="A3307" s="5" t="n">
         <v>45419</v>
       </c>
       <c r="B3307" t="n">
@@ -41250,7 +41251,7 @@
       </c>
     </row>
     <row r="3308">
-      <c r="A3308" s="6" t="n">
+      <c r="A3308" s="5" t="n">
         <v>45420</v>
       </c>
       <c r="B3308" t="n">
@@ -41267,7 +41268,7 @@
       </c>
     </row>
     <row r="3309">
-      <c r="A3309" s="6" t="n">
+      <c r="A3309" s="5" t="n">
         <v>45421</v>
       </c>
       <c r="B3309" t="n">
@@ -41284,7 +41285,7 @@
       </c>
     </row>
     <row r="3310">
-      <c r="A3310" s="6" t="n">
+      <c r="A3310" s="5" t="n">
         <v>45422</v>
       </c>
       <c r="B3310" t="n">
@@ -41301,7 +41302,7 @@
       </c>
     </row>
     <row r="3311">
-      <c r="A3311" s="6" t="n">
+      <c r="A3311" s="5" t="n">
         <v>45425</v>
       </c>
       <c r="B3311" t="n">
@@ -41318,7 +41319,7 @@
       </c>
     </row>
     <row r="3312">
-      <c r="A3312" s="6" t="n">
+      <c r="A3312" s="5" t="n">
         <v>45426</v>
       </c>
       <c r="B3312" t="n">
@@ -41335,7 +41336,7 @@
       </c>
     </row>
     <row r="3313">
-      <c r="A3313" s="6" t="n">
+      <c r="A3313" s="5" t="n">
         <v>45427</v>
       </c>
       <c r="B3313" t="n">
@@ -41352,7 +41353,7 @@
       </c>
     </row>
     <row r="3314">
-      <c r="A3314" s="6" t="n">
+      <c r="A3314" s="5" t="n">
         <v>45428</v>
       </c>
       <c r="B3314" t="n">
@@ -41369,7 +41370,7 @@
       </c>
     </row>
     <row r="3315">
-      <c r="A3315" s="6" t="n">
+      <c r="A3315" s="5" t="n">
         <v>45429</v>
       </c>
       <c r="B3315" t="n">
@@ -41386,7 +41387,7 @@
       </c>
     </row>
     <row r="3316">
-      <c r="A3316" s="6" t="n">
+      <c r="A3316" s="5" t="n">
         <v>45430</v>
       </c>
       <c r="B3316" t="n">
@@ -41403,7 +41404,7 @@
       </c>
     </row>
     <row r="3317">
-      <c r="A3317" s="6" t="n">
+      <c r="A3317" s="5" t="n">
         <v>45433</v>
       </c>
       <c r="B3317" t="n">
@@ -41420,7 +41421,7 @@
       </c>
     </row>
     <row r="3318">
-      <c r="A3318" s="6" t="n">
+      <c r="A3318" s="5" t="n">
         <v>45434</v>
       </c>
       <c r="B3318" t="n">
@@ -41437,7 +41438,7 @@
       </c>
     </row>
     <row r="3319">
-      <c r="A3319" s="6" t="n">
+      <c r="A3319" s="5" t="n">
         <v>45435</v>
       </c>
       <c r="B3319" t="n">
@@ -41454,7 +41455,7 @@
       </c>
     </row>
     <row r="3320">
-      <c r="A3320" s="6" t="n">
+      <c r="A3320" s="5" t="n">
         <v>45436</v>
       </c>
       <c r="B3320" t="n">
@@ -41471,7 +41472,7 @@
       </c>
     </row>
     <row r="3321">
-      <c r="A3321" s="6" t="n">
+      <c r="A3321" s="5" t="n">
         <v>45439</v>
       </c>
       <c r="B3321" t="n">
@@ -41488,7 +41489,7 @@
       </c>
     </row>
     <row r="3322">
-      <c r="A3322" s="6" t="n">
+      <c r="A3322" s="5" t="n">
         <v>45440</v>
       </c>
       <c r="B3322" t="n">
@@ -41505,7 +41506,7 @@
       </c>
     </row>
     <row r="3323">
-      <c r="A3323" s="6" t="n">
+      <c r="A3323" s="5" t="n">
         <v>45441</v>
       </c>
       <c r="B3323" t="n">
@@ -41522,7 +41523,7 @@
       </c>
     </row>
     <row r="3324">
-      <c r="A3324" s="6" t="n">
+      <c r="A3324" s="5" t="n">
         <v>45442</v>
       </c>
       <c r="B3324" t="n">
@@ -41539,7 +41540,7 @@
       </c>
     </row>
     <row r="3325">
-      <c r="A3325" s="6" t="n">
+      <c r="A3325" s="5" t="n">
         <v>45443</v>
       </c>
       <c r="B3325" t="n">
@@ -41556,7 +41557,7 @@
       </c>
     </row>
     <row r="3326">
-      <c r="A3326" s="6" t="n">
+      <c r="A3326" s="5" t="n">
         <v>45446</v>
       </c>
       <c r="B3326" t="n">
@@ -41573,7 +41574,7 @@
       </c>
     </row>
     <row r="3327">
-      <c r="A3327" s="6" t="n">
+      <c r="A3327" s="5" t="n">
         <v>45447</v>
       </c>
       <c r="B3327" t="n">
@@ -41590,7 +41591,7 @@
       </c>
     </row>
     <row r="3328">
-      <c r="A3328" s="6" t="n">
+      <c r="A3328" s="5" t="n">
         <v>45448</v>
       </c>
       <c r="B3328" t="n">
@@ -41607,7 +41608,7 @@
       </c>
     </row>
     <row r="3329">
-      <c r="A3329" s="6" t="n">
+      <c r="A3329" s="5" t="n">
         <v>45449</v>
       </c>
       <c r="B3329" t="n">
@@ -41624,7 +41625,7 @@
       </c>
     </row>
     <row r="3330">
-      <c r="A3330" s="6" t="n">
+      <c r="A3330" s="5" t="n">
         <v>45450</v>
       </c>
       <c r="B3330" t="n">
@@ -41641,7 +41642,7 @@
       </c>
     </row>
     <row r="3331">
-      <c r="A3331" s="6" t="n">
+      <c r="A3331" s="5" t="n">
         <v>45453</v>
       </c>
       <c r="B3331" t="n">
@@ -41658,7 +41659,7 @@
       </c>
     </row>
     <row r="3332">
-      <c r="A3332" s="6" t="n">
+      <c r="A3332" s="5" t="n">
         <v>45454</v>
       </c>
       <c r="B3332" t="n">
@@ -41675,7 +41676,7 @@
       </c>
     </row>
     <row r="3333">
-      <c r="A3333" s="6" t="n">
+      <c r="A3333" s="5" t="n">
         <v>45455</v>
       </c>
       <c r="B3333" t="n">
@@ -41692,7 +41693,7 @@
       </c>
     </row>
     <row r="3334">
-      <c r="A3334" s="6" t="n">
+      <c r="A3334" s="5" t="n">
         <v>45456</v>
       </c>
       <c r="B3334" t="n">
@@ -41709,7 +41710,7 @@
       </c>
     </row>
     <row r="3335">
-      <c r="A3335" s="6" t="n">
+      <c r="A3335" s="5" t="n">
         <v>45457</v>
       </c>
       <c r="B3335" t="n">
@@ -41726,7 +41727,7 @@
       </c>
     </row>
     <row r="3336">
-      <c r="A3336" s="6" t="n">
+      <c r="A3336" s="5" t="n">
         <v>45461</v>
       </c>
       <c r="B3336" t="n">
@@ -41743,7 +41744,7 @@
       </c>
     </row>
     <row r="3337">
-      <c r="A3337" s="6" t="n">
+      <c r="A3337" s="5" t="n">
         <v>45462</v>
       </c>
       <c r="B3337" t="n">
@@ -41760,7 +41761,7 @@
       </c>
     </row>
     <row r="3338">
-      <c r="A3338" s="6" t="n">
+      <c r="A3338" s="5" t="n">
         <v>45463</v>
       </c>
       <c r="B3338" t="n">
@@ -41777,7 +41778,7 @@
       </c>
     </row>
     <row r="3339">
-      <c r="A3339" s="6" t="n">
+      <c r="A3339" s="5" t="n">
         <v>45464</v>
       </c>
       <c r="B3339" t="n">
@@ -41794,7 +41795,7 @@
       </c>
     </row>
     <row r="3340">
-      <c r="A3340" s="6" t="n">
+      <c r="A3340" s="5" t="n">
         <v>45467</v>
       </c>
       <c r="B3340" t="n">
@@ -41811,7 +41812,7 @@
       </c>
     </row>
     <row r="3341">
-      <c r="A3341" s="6" t="n">
+      <c r="A3341" s="5" t="n">
         <v>45468</v>
       </c>
       <c r="B3341" t="n">
@@ -41828,7 +41829,7 @@
       </c>
     </row>
     <row r="3342">
-      <c r="A3342" s="6" t="n">
+      <c r="A3342" s="5" t="n">
         <v>45469</v>
       </c>
       <c r="B3342" t="n">
@@ -41845,7 +41846,7 @@
       </c>
     </row>
     <row r="3343">
-      <c r="A3343" s="6" t="n">
+      <c r="A3343" s="5" t="n">
         <v>45470</v>
       </c>
       <c r="B3343" t="n">
@@ -41862,7 +41863,7 @@
       </c>
     </row>
     <row r="3344">
-      <c r="A3344" s="6" t="n">
+      <c r="A3344" s="5" t="n">
         <v>45471</v>
       </c>
       <c r="B3344" t="n">
@@ -41879,7 +41880,7 @@
       </c>
     </row>
     <row r="3345">
-      <c r="A3345" s="6" t="n">
+      <c r="A3345" s="5" t="n">
         <v>45474</v>
       </c>
       <c r="B3345" t="n">
@@ -41896,7 +41897,7 @@
       </c>
     </row>
     <row r="3346">
-      <c r="A3346" s="6" t="n">
+      <c r="A3346" s="5" t="n">
         <v>45475</v>
       </c>
       <c r="B3346" t="n">
@@ -41913,7 +41914,7 @@
       </c>
     </row>
     <row r="3347">
-      <c r="A3347" s="6" t="n">
+      <c r="A3347" s="5" t="n">
         <v>45476</v>
       </c>
       <c r="B3347" t="n">
@@ -41930,7 +41931,7 @@
       </c>
     </row>
     <row r="3348">
-      <c r="A3348" s="6" t="n">
+      <c r="A3348" s="5" t="n">
         <v>45477</v>
       </c>
       <c r="B3348" t="n">
@@ -41947,7 +41948,7 @@
       </c>
     </row>
     <row r="3349">
-      <c r="A3349" s="6" t="n">
+      <c r="A3349" s="5" t="n">
         <v>45478</v>
       </c>
       <c r="B3349" t="n">
@@ -41964,7 +41965,7 @@
       </c>
     </row>
     <row r="3350">
-      <c r="A3350" s="6" t="n">
+      <c r="A3350" s="5" t="n">
         <v>45481</v>
       </c>
       <c r="B3350" t="n">
@@ -41981,7 +41982,7 @@
       </c>
     </row>
     <row r="3351">
-      <c r="A3351" s="6" t="n">
+      <c r="A3351" s="5" t="n">
         <v>45482</v>
       </c>
       <c r="B3351" t="n">
@@ -41998,7 +41999,7 @@
       </c>
     </row>
     <row r="3352">
-      <c r="A3352" s="6" t="n">
+      <c r="A3352" s="5" t="n">
         <v>45483</v>
       </c>
       <c r="B3352" t="n">
@@ -42015,7 +42016,7 @@
       </c>
     </row>
     <row r="3353">
-      <c r="A3353" s="6" t="n">
+      <c r="A3353" s="5" t="n">
         <v>45484</v>
       </c>
       <c r="B3353" t="n">
@@ -42032,7 +42033,7 @@
       </c>
     </row>
     <row r="3354">
-      <c r="A3354" s="6" t="n">
+      <c r="A3354" s="5" t="n">
         <v>45485</v>
       </c>
       <c r="B3354" t="n">
@@ -42049,7 +42050,7 @@
       </c>
     </row>
     <row r="3355">
-      <c r="A3355" s="6" t="n">
+      <c r="A3355" s="5" t="n">
         <v>45488</v>
       </c>
       <c r="B3355" t="n">
@@ -42066,7 +42067,7 @@
       </c>
     </row>
     <row r="3356">
-      <c r="A3356" s="6" t="n">
+      <c r="A3356" s="5" t="n">
         <v>45489</v>
       </c>
       <c r="B3356" t="n">
@@ -42083,7 +42084,7 @@
       </c>
     </row>
     <row r="3357">
-      <c r="A3357" s="6" t="n">
+      <c r="A3357" s="5" t="n">
         <v>45491</v>
       </c>
       <c r="B3357" t="n">
@@ -42100,7 +42101,7 @@
       </c>
     </row>
     <row r="3358">
-      <c r="A3358" s="6" t="n">
+      <c r="A3358" s="5" t="n">
         <v>45492</v>
       </c>
       <c r="B3358" t="n">
@@ -42117,7 +42118,7 @@
       </c>
     </row>
     <row r="3359">
-      <c r="A3359" s="6" t="n">
+      <c r="A3359" s="5" t="n">
         <v>45495</v>
       </c>
       <c r="B3359" t="n">
@@ -42134,7 +42135,7 @@
       </c>
     </row>
     <row r="3360">
-      <c r="A3360" s="6" t="n">
+      <c r="A3360" s="5" t="n">
         <v>45496</v>
       </c>
       <c r="B3360" t="n">
@@ -42151,7 +42152,7 @@
       </c>
     </row>
     <row r="3361">
-      <c r="A3361" s="6" t="n">
+      <c r="A3361" s="5" t="n">
         <v>45497</v>
       </c>
       <c r="B3361" t="n">
@@ -42168,7 +42169,7 @@
       </c>
     </row>
     <row r="3362">
-      <c r="A3362" s="6" t="n">
+      <c r="A3362" s="5" t="n">
         <v>45498</v>
       </c>
       <c r="B3362" t="n">
@@ -42185,7 +42186,7 @@
       </c>
     </row>
     <row r="3363">
-      <c r="A3363" s="6" t="n">
+      <c r="A3363" s="5" t="n">
         <v>45499</v>
       </c>
       <c r="B3363" t="n">
@@ -42202,7 +42203,7 @@
       </c>
     </row>
     <row r="3364">
-      <c r="A3364" s="6" t="n">
+      <c r="A3364" s="5" t="n">
         <v>45502</v>
       </c>
       <c r="B3364" t="n">
@@ -42219,7 +42220,7 @@
       </c>
     </row>
     <row r="3365">
-      <c r="A3365" s="6" t="n">
+      <c r="A3365" s="5" t="n">
         <v>45503</v>
       </c>
       <c r="B3365" t="n">
@@ -42236,7 +42237,7 @@
       </c>
     </row>
     <row r="3366">
-      <c r="A3366" s="6" t="n">
+      <c r="A3366" s="5" t="n">
         <v>45504</v>
       </c>
       <c r="B3366" t="n">
@@ -42253,7 +42254,7 @@
       </c>
     </row>
     <row r="3367">
-      <c r="A3367" s="6" t="n">
+      <c r="A3367" s="5" t="n">
         <v>45505</v>
       </c>
       <c r="B3367" t="n">
@@ -42270,7 +42271,7 @@
       </c>
     </row>
     <row r="3368">
-      <c r="A3368" s="6" t="n">
+      <c r="A3368" s="5" t="n">
         <v>45506</v>
       </c>
       <c r="B3368" t="n">
@@ -42287,7 +42288,7 @@
       </c>
     </row>
     <row r="3369">
-      <c r="A3369" s="6" t="n">
+      <c r="A3369" s="5" t="n">
         <v>45509</v>
       </c>
       <c r="B3369" t="n">
@@ -42304,7 +42305,7 @@
       </c>
     </row>
     <row r="3370">
-      <c r="A3370" s="6" t="n">
+      <c r="A3370" s="5" t="n">
         <v>45510</v>
       </c>
       <c r="B3370" t="n">
@@ -42321,7 +42322,7 @@
       </c>
     </row>
     <row r="3371">
-      <c r="A3371" s="6" t="n">
+      <c r="A3371" s="5" t="n">
         <v>45511</v>
       </c>
       <c r="B3371" t="n">
@@ -42338,7 +42339,7 @@
       </c>
     </row>
     <row r="3372">
-      <c r="A3372" s="6" t="n">
+      <c r="A3372" s="5" t="n">
         <v>45512</v>
       </c>
       <c r="B3372" t="n">
@@ -42355,7 +42356,7 @@
       </c>
     </row>
     <row r="3373">
-      <c r="A3373" s="6" t="n">
+      <c r="A3373" s="5" t="n">
         <v>45513</v>
       </c>
       <c r="B3373" t="n">
@@ -42372,7 +42373,7 @@
       </c>
     </row>
     <row r="3374">
-      <c r="A3374" s="6" t="n">
+      <c r="A3374" s="5" t="n">
         <v>45516</v>
       </c>
       <c r="B3374" t="n">
@@ -42389,7 +42390,7 @@
       </c>
     </row>
     <row r="3375">
-      <c r="A3375" s="6" t="n">
+      <c r="A3375" s="5" t="n">
         <v>45517</v>
       </c>
       <c r="B3375" t="n">
@@ -42406,7 +42407,7 @@
       </c>
     </row>
     <row r="3376">
-      <c r="A3376" s="6" t="n">
+      <c r="A3376" s="5" t="n">
         <v>45518</v>
       </c>
       <c r="B3376" t="n">
@@ -42423,7 +42424,7 @@
       </c>
     </row>
     <row r="3377">
-      <c r="A3377" s="6" t="n">
+      <c r="A3377" s="5" t="n">
         <v>45520</v>
       </c>
       <c r="B3377" t="n">
@@ -42440,7 +42441,7 @@
       </c>
     </row>
     <row r="3378">
-      <c r="A3378" s="6" t="n">
+      <c r="A3378" s="5" t="n">
         <v>45523</v>
       </c>
       <c r="B3378" t="n">
@@ -42457,7 +42458,7 @@
       </c>
     </row>
     <row r="3379">
-      <c r="A3379" s="6" t="n">
+      <c r="A3379" s="5" t="n">
         <v>45524</v>
       </c>
       <c r="B3379" t="n">
@@ -42474,7 +42475,7 @@
       </c>
     </row>
     <row r="3380">
-      <c r="A3380" s="6" t="n">
+      <c r="A3380" s="5" t="n">
         <v>45525</v>
       </c>
       <c r="B3380" t="n">
@@ -42491,7 +42492,7 @@
       </c>
     </row>
     <row r="3381">
-      <c r="A3381" s="6" t="n">
+      <c r="A3381" s="5" t="n">
         <v>45526</v>
       </c>
       <c r="B3381" t="n">
@@ -42508,7 +42509,7 @@
       </c>
     </row>
     <row r="3382">
-      <c r="A3382" s="6" t="n">
+      <c r="A3382" s="5" t="n">
         <v>45527</v>
       </c>
       <c r="B3382" t="n">
@@ -42525,7 +42526,7 @@
       </c>
     </row>
     <row r="3383">
-      <c r="A3383" s="6" t="n">
+      <c r="A3383" s="5" t="n">
         <v>45530</v>
       </c>
       <c r="B3383" t="n">
@@ -42542,7 +42543,7 @@
       </c>
     </row>
     <row r="3384">
-      <c r="A3384" s="6" t="n">
+      <c r="A3384" s="5" t="n">
         <v>45531</v>
       </c>
       <c r="B3384" t="n">
@@ -42559,7 +42560,7 @@
       </c>
     </row>
     <row r="3385">
-      <c r="A3385" s="6" t="n">
+      <c r="A3385" s="5" t="n">
         <v>45532</v>
       </c>
       <c r="B3385" t="n">
@@ -42576,7 +42577,7 @@
       </c>
     </row>
     <row r="3386">
-      <c r="A3386" s="6" t="n">
+      <c r="A3386" s="5" t="n">
         <v>45533</v>
       </c>
       <c r="B3386" t="n">
@@ -42593,7 +42594,7 @@
       </c>
     </row>
     <row r="3387">
-      <c r="A3387" s="6" t="n">
+      <c r="A3387" s="5" t="n">
         <v>45534</v>
       </c>
       <c r="B3387" t="n">
@@ -42610,7 +42611,7 @@
       </c>
     </row>
     <row r="3388">
-      <c r="A3388" s="6" t="n">
+      <c r="A3388" s="5" t="n">
         <v>45537</v>
       </c>
       <c r="B3388" t="n">
@@ -42627,7 +42628,7 @@
       </c>
     </row>
     <row r="3389">
-      <c r="A3389" s="6" t="n">
+      <c r="A3389" s="5" t="n">
         <v>45538</v>
       </c>
       <c r="B3389" t="n">
@@ -42644,7 +42645,7 @@
       </c>
     </row>
     <row r="3390">
-      <c r="A3390" s="6" t="n">
+      <c r="A3390" s="5" t="n">
         <v>45539</v>
       </c>
       <c r="B3390" t="n">
@@ -42661,7 +42662,7 @@
       </c>
     </row>
     <row r="3391">
-      <c r="A3391" s="6" t="n">
+      <c r="A3391" s="5" t="n">
         <v>45540</v>
       </c>
       <c r="B3391" t="n">
@@ -42678,7 +42679,7 @@
       </c>
     </row>
     <row r="3392">
-      <c r="A3392" s="6" t="n">
+      <c r="A3392" s="5" t="n">
         <v>45541</v>
       </c>
       <c r="B3392" t="n">
@@ -42695,7 +42696,7 @@
       </c>
     </row>
     <row r="3393">
-      <c r="A3393" s="7" t="n">
+      <c r="A3393" s="6" t="n">
         <v>45544</v>
       </c>
       <c r="B3393" t="n">
@@ -42712,7 +42713,7 @@
       </c>
     </row>
     <row r="3394">
-      <c r="A3394" s="7" t="n">
+      <c r="A3394" s="6" t="n">
         <v>45545</v>
       </c>
       <c r="B3394" t="n">
@@ -42729,7 +42730,7 @@
       </c>
     </row>
     <row r="3395">
-      <c r="A3395" s="7" t="n">
+      <c r="A3395" s="6" t="n">
         <v>45546</v>
       </c>
       <c r="B3395" t="n">
@@ -42746,7 +42747,7 @@
       </c>
     </row>
     <row r="3396">
-      <c r="A3396" s="7" t="n">
+      <c r="A3396" s="6" t="n">
         <v>45547</v>
       </c>
       <c r="B3396" t="n">
@@ -42763,7 +42764,7 @@
       </c>
     </row>
     <row r="3397">
-      <c r="A3397" s="7" t="n">
+      <c r="A3397" s="6" t="n">
         <v>45548</v>
       </c>
       <c r="B3397" t="n">
@@ -42780,7 +42781,7 @@
       </c>
     </row>
     <row r="3398">
-      <c r="A3398" s="7" t="n">
+      <c r="A3398" s="6" t="n">
         <v>45551</v>
       </c>
       <c r="B3398" t="n">
@@ -42797,7 +42798,7 @@
       </c>
     </row>
     <row r="3399">
-      <c r="A3399" s="7" t="n">
+      <c r="A3399" s="6" t="n">
         <v>45552</v>
       </c>
       <c r="B3399" t="n">
@@ -42814,7 +42815,7 @@
       </c>
     </row>
     <row r="3400">
-      <c r="A3400" s="7" t="n">
+      <c r="A3400" s="6" t="n">
         <v>45553</v>
       </c>
       <c r="B3400" t="n">
@@ -42831,7 +42832,7 @@
       </c>
     </row>
     <row r="3401">
-      <c r="A3401" s="7" t="n">
+      <c r="A3401" s="6" t="n">
         <v>45554</v>
       </c>
       <c r="B3401" t="n">
@@ -42848,7 +42849,7 @@
       </c>
     </row>
     <row r="3402">
-      <c r="A3402" s="7" t="n">
+      <c r="A3402" s="6" t="n">
         <v>45555</v>
       </c>
       <c r="B3402" t="n">
@@ -42865,7 +42866,7 @@
       </c>
     </row>
     <row r="3403">
-      <c r="A3403" s="7" t="n">
+      <c r="A3403" s="6" t="n">
         <v>45558</v>
       </c>
       <c r="B3403" t="n">
@@ -42882,7 +42883,7 @@
       </c>
     </row>
     <row r="3404">
-      <c r="A3404" s="7" t="n">
+      <c r="A3404" s="6" t="n">
         <v>45559</v>
       </c>
       <c r="B3404" t="n">
@@ -42899,7 +42900,7 @@
       </c>
     </row>
     <row r="3405">
-      <c r="A3405" s="7" t="n">
+      <c r="A3405" s="6" t="n">
         <v>45560</v>
       </c>
       <c r="B3405" t="n">
@@ -42916,7 +42917,7 @@
       </c>
     </row>
     <row r="3406">
-      <c r="A3406" s="7" t="n">
+      <c r="A3406" s="6" t="n">
         <v>45561</v>
       </c>
       <c r="B3406" t="n">
@@ -42933,7 +42934,7 @@
       </c>
     </row>
     <row r="3407">
-      <c r="A3407" s="7" t="n">
+      <c r="A3407" s="6" t="n">
         <v>45562</v>
       </c>
       <c r="B3407" t="n">
@@ -42947,6 +42948,1247 @@
       </c>
       <c r="E3407" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" s="7" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B3408" t="n">
+        <v>21725.06</v>
+      </c>
+      <c r="C3408" t="n">
+        <v>32.24</v>
+      </c>
+      <c r="D3408" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E3408" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="7" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B3409" t="n">
+        <v>21756.2</v>
+      </c>
+      <c r="C3409" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="D3409" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E3409" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="7" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B3410" t="n">
+        <v>21290.65</v>
+      </c>
+      <c r="C3410" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="D3410" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E3410" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="7" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B3411" t="n">
+        <v>21095.48</v>
+      </c>
+      <c r="C3411" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D3411" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E3411" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="7" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B3412" t="n">
+        <v>20754.22</v>
+      </c>
+      <c r="C3412" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D3412" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3412" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="7" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B3413" t="n">
+        <v>21083.83</v>
+      </c>
+      <c r="C3413" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="D3413" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E3413" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="7" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B3414" t="n">
+        <v>21205.23</v>
+      </c>
+      <c r="C3414" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="D3414" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E3414" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="7" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B3415" t="n">
+        <v>21190.37</v>
+      </c>
+      <c r="C3415" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D3415" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E3415" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="7" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B3416" t="n">
+        <v>21226.36</v>
+      </c>
+      <c r="C3416" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="D3416" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E3416" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="7" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B3417" t="n">
+        <v>21323.13</v>
+      </c>
+      <c r="C3417" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="D3417" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E3417" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="7" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B3418" t="n">
+        <v>21337.73</v>
+      </c>
+      <c r="C3418" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D3418" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E3418" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="7" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B3419" t="n">
+        <v>21279.83</v>
+      </c>
+      <c r="C3419" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="D3419" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E3419" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="7" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B3420" t="n">
+        <v>20982.77</v>
+      </c>
+      <c r="C3420" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D3420" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E3420" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="7" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B3421" t="n">
+        <v>21037.26</v>
+      </c>
+      <c r="C3421" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="D3421" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E3421" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="7" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B3422" t="n">
+        <v>20831.87</v>
+      </c>
+      <c r="C3422" t="n">
+        <v>30.81</v>
+      </c>
+      <c r="D3422" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3422" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="7" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B3423" t="n">
+        <v>20406.09</v>
+      </c>
+      <c r="C3423" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="D3423" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E3423" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="7" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B3424" t="n">
+        <v>20446.87</v>
+      </c>
+      <c r="C3424" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="D3424" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E3424" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="7" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B3425" t="n">
+        <v>20403.06</v>
+      </c>
+      <c r="C3425" t="n">
+        <v>29.94</v>
+      </c>
+      <c r="D3425" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E3425" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="7" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B3426" t="n">
+        <v>20120.98</v>
+      </c>
+      <c r="C3426" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="D3426" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3426" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="7" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B3427" t="n">
+        <v>20247.12</v>
+      </c>
+      <c r="C3427" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="D3427" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E3427" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="7" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B3428" t="n">
+        <v>20395.64</v>
+      </c>
+      <c r="C3428" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="D3428" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E3428" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="7" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B3429" t="n">
+        <v>20369.59</v>
+      </c>
+      <c r="C3429" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D3429" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E3429" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="7" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B3430" t="n">
+        <v>20297.4</v>
+      </c>
+      <c r="C3430" t="n">
+        <v>30.16</v>
+      </c>
+      <c r="D3430" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E3430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="7" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B3431" t="n">
+        <v>20418.42</v>
+      </c>
+      <c r="C3431" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D3431" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E3431" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="7" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B3432" t="n">
+        <v>20164.06</v>
+      </c>
+      <c r="C3432" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D3432" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3432" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="7" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>20292.03</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>30.14</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E3433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="7" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>20646.17</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="E3434" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="7" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B3435" t="n">
+        <v>20478.51</v>
+      </c>
+      <c r="C3435" t="n">
+        <v>30.34</v>
+      </c>
+      <c r="D3435" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E3435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="7" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B3436" t="n">
+        <v>20301.03</v>
+      </c>
+      <c r="C3436" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="D3436" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E3436" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="7" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B3437" t="n">
+        <v>20221.86</v>
+      </c>
+      <c r="C3437" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="D3437" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E3437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="7" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B3438" t="n">
+        <v>20010.11</v>
+      </c>
+      <c r="C3438" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="D3438" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E3438" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="7" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B3439" t="n">
+        <v>19592.48</v>
+      </c>
+      <c r="C3439" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="D3439" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E3439" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="7" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B3440" t="n">
+        <v>19649.4</v>
+      </c>
+      <c r="C3440" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="D3440" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E3440" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="7" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B3441" t="n">
+        <v>19605.62</v>
+      </c>
+      <c r="C3441" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="D3441" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E3441" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="7" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B3442" t="n">
+        <v>19729.62</v>
+      </c>
+      <c r="C3442" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D3442" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E3442" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="7" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B3443" t="n">
+        <v>19595.48</v>
+      </c>
+      <c r="C3443" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="D3443" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E3443" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="7" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B3444" t="n">
+        <v>19918.19</v>
+      </c>
+      <c r="C3444" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D3444" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E3444" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="7" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B3445" t="n">
+        <v>20208.05</v>
+      </c>
+      <c r="C3445" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="D3445" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E3445" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="7" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B3446" t="n">
+        <v>20208.52</v>
+      </c>
+      <c r="C3446" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="D3446" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E3446" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="7" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B3447" t="n">
+        <v>20312.23</v>
+      </c>
+      <c r="C3447" t="n">
+        <v>29.58</v>
+      </c>
+      <c r="D3447" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E3447" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="7" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B3448" t="n">
+        <v>20201.32</v>
+      </c>
+      <c r="C3448" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="D3448" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3448" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="7" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B3449" t="n">
+        <v>20321.56</v>
+      </c>
+      <c r="C3449" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="D3449" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E3449" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="7" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B3450" t="n">
+        <v>20477.22</v>
+      </c>
+      <c r="C3450" t="n">
+        <v>29.82</v>
+      </c>
+      <c r="D3450" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E3450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="7" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B3451" t="n">
+        <v>20646.56</v>
+      </c>
+      <c r="C3451" t="n">
+        <v>30.07</v>
+      </c>
+      <c r="D3451" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E3451" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="7" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B3452" t="n">
+        <v>20755.72</v>
+      </c>
+      <c r="C3452" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="D3452" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E3452" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="7" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B3453" t="n">
+        <v>20893.3</v>
+      </c>
+      <c r="C3453" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="D3453" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E3453" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="7" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B3454" t="n">
+        <v>20938.76</v>
+      </c>
+      <c r="C3454" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="D3454" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E3454" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="7" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B3455" t="n">
+        <v>20951.48</v>
+      </c>
+      <c r="C3455" t="n">
+        <v>30.51</v>
+      </c>
+      <c r="D3455" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E3455" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="7" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B3456" t="n">
+        <v>20983.58</v>
+      </c>
+      <c r="C3456" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="D3456" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3456" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="7" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B3457" t="n">
+        <v>21032.14</v>
+      </c>
+      <c r="C3457" t="n">
+        <v>30.63</v>
+      </c>
+      <c r="D3457" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E3457" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="7" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B3458" t="n">
+        <v>20942.83</v>
+      </c>
+      <c r="C3458" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D3458" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E3458" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="7" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B3459" t="n">
+        <v>21003.69</v>
+      </c>
+      <c r="C3459" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="D3459" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E3459" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="7" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B3460" t="n">
+        <v>21048.75</v>
+      </c>
+      <c r="C3460" t="n">
+        <v>30.65</v>
+      </c>
+      <c r="D3460" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E3460" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" s="7" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B3461" t="n">
+        <v>20844.65</v>
+      </c>
+      <c r="C3461" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="D3461" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E3461" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" s="7" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B3462" t="n">
+        <v>20706.46</v>
+      </c>
+      <c r="C3462" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="D3462" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E3462" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" s="7" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B3463" t="n">
+        <v>20579.49</v>
+      </c>
+      <c r="C3463" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="D3463" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E3463" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" s="7" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B3464" t="n">
+        <v>20148.91</v>
+      </c>
+      <c r="C3464" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="D3464" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E3464" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" s="7" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B3465" t="n">
+        <v>20222.09</v>
+      </c>
+      <c r="C3465" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="D3465" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" s="7" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B3466" t="n">
+        <v>20214.46</v>
+      </c>
+      <c r="C3466" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="D3466" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3466" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" s="7" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B3467" t="n">
+        <v>20237.97</v>
+      </c>
+      <c r="C3467" t="n">
+        <v>29.47</v>
+      </c>
+      <c r="D3467" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E3467" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" s="7" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B3468" t="n">
+        <v>20234.02</v>
+      </c>
+      <c r="C3468" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="D3468" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" s="7" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B3469" t="n">
+        <v>20199.59</v>
+      </c>
+      <c r="C3469" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="D3469" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" s="7" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B3470" t="n">
+        <v>20212.8</v>
+      </c>
+      <c r="C3470" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="D3470" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E3470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" s="7" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B3471" t="n">
+        <v>20304.48</v>
+      </c>
+      <c r="C3471" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="D3471" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E3471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" s="7" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B3472" t="n">
+        <v>20591.27</v>
+      </c>
+      <c r="C3472" t="n">
+        <v>30.03</v>
+      </c>
+      <c r="D3472" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E3472" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" s="7" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B3473" t="n">
+        <v>20504.2</v>
+      </c>
+      <c r="C3473" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D3473" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E3473" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" s="7" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B3474" t="n">
+        <v>20049.94</v>
+      </c>
+      <c r="C3474" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="D3474" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E3474" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" s="7" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B3475" t="n">
+        <v>20167.05</v>
+      </c>
+      <c r="C3475" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="D3475" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E3475" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" s="7" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B3476" t="n">
+        <v>20039.87</v>
+      </c>
+      <c r="C3476" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="D3476" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E3476" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" s="7" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B3477" t="n">
+        <v>19880.54</v>
+      </c>
+      <c r="C3477" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="D3477" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E3477" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" s="7" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B3478" t="n">
+        <v>19609.57</v>
+      </c>
+      <c r="C3478" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D3478" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E3478" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" s="7" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B3479" t="n">
+        <v>19031.89</v>
+      </c>
+      <c r="C3479" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="D3479" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E3479" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" s="7" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B3480" t="n">
+        <v>19311.35</v>
+      </c>
+      <c r="C3480" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="D3480" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E3480" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
